--- a/fig1/data/Figure_1_boxplots.xlsx
+++ b/fig1/data/Figure_1_boxplots.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gittis\Documents\GitHub\willard2018a\fig1\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F262EC-8754-4942-A521-9755E35DC0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="520" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="555" yWindow="525" windowWidth="25035" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1 Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>G5% p values for pairs (p&lt;0.01=synchronous)</t>
   </si>
@@ -89,11 +95,50 @@
   <si>
     <t>Figure #</t>
   </si>
+  <si>
+    <t>1J</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>1N</t>
+  </si>
+  <si>
+    <t>N/A(LFP)</t>
+  </si>
+  <si>
+    <t>Ctl % Fractional Beta power</t>
+  </si>
+  <si>
+    <t>A5% Fractional Beta power</t>
+  </si>
+  <si>
+    <t>G5% Fractional Beta power</t>
+  </si>
+  <si>
+    <t>A5% vs. G5% cross-validation accuracy</t>
+  </si>
+  <si>
+    <t>A5% + G5% vs. Ctl cross-validation accuracy</t>
+  </si>
+  <si>
+    <t>A5% + G5% vs. Ctl null model cross-validation accuracy</t>
+  </si>
+  <si>
+    <t>A5% vs. G5% null model cross-validation accuracy</t>
+  </si>
+  <si>
+    <t>Logmod(Coeffs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -145,10 +190,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,29 +526,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -535,8 +593,26 @@
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -576,8 +652,20 @@
       <c r="M2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="N2" s="1">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,16 +697,25 @@
         <v>293</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -650,16 +747,40 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>31.310060904840586</v>
       </c>
@@ -688,16 +809,40 @@
         <v>1.2523020257826887</v>
       </c>
       <c r="K5">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="M5">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="N5">
         <v>0.41595441595441596</v>
       </c>
-      <c r="L5">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M5">
+      <c r="O5">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P5">
         <v>0.25213675213675213</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="Q5">
+        <v>98.4</v>
+      </c>
+      <c r="R5">
+        <v>48.8</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>45.2</v>
+      </c>
+      <c r="U5">
+        <v>-0.26150000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>33.330889596086585</v>
       </c>
@@ -726,16 +871,40 @@
         <v>3.7897511945954849</v>
       </c>
       <c r="K6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="L6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.1114</v>
+      </c>
+      <c r="N6">
         <v>0.5826210826210827</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>0.94658119658119655</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>3.5612535612535613E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>47.8</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>49.8</v>
+      </c>
+      <c r="U6">
+        <v>0.59430000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>34.109214464303214</v>
       </c>
@@ -764,16 +933,40 @@
         <v>2.5547445255474455</v>
       </c>
       <c r="K7">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="L7">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="M7">
+        <v>8.43E-2</v>
+      </c>
+      <c r="N7">
         <v>0.39814814814814814</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>0.41951566951566954</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>0.76709401709401703</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>53.8</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>47.8</v>
+      </c>
+      <c r="U7">
+        <v>0.42380000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>33.065713085860402</v>
       </c>
@@ -802,16 +995,40 @@
         <v>6.1701277955271561</v>
       </c>
       <c r="K8">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="L8">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="M8">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="N8">
         <v>0.17094017094017094</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>0.73219373219373218</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.42877492877492879</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="Q8">
+        <v>89</v>
+      </c>
+      <c r="R8">
+        <v>50.2</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>54.8</v>
+      </c>
+      <c r="U8">
+        <v>2.0674999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8.1535095621516334</v>
       </c>
@@ -840,16 +1057,40 @@
         <v>0.65176908752327745</v>
       </c>
       <c r="K9">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.1137</v>
+      </c>
+      <c r="N9">
         <v>0.89245014245014243</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>0.72008547008547008</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.19159544159544159</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="Q9">
+        <v>5.6</v>
+      </c>
+      <c r="R9">
+        <v>46.4</v>
+      </c>
+      <c r="S9">
+        <v>96.8</v>
+      </c>
+      <c r="T9">
+        <v>51</v>
+      </c>
+      <c r="U9">
+        <v>-0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.7967304012049965</v>
       </c>
@@ -878,16 +1119,40 @@
         <v>0.98657166346944358</v>
       </c>
       <c r="K10">
+        <v>0.1057</v>
+      </c>
+      <c r="L10">
+        <v>4.24E-2</v>
+      </c>
+      <c r="M10">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="N10">
         <v>0.829059829059829</v>
       </c>
-      <c r="L10">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M10">
+      <c r="O10">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P10">
         <v>0.14102564102564102</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>51.6</v>
+      </c>
+      <c r="S10">
+        <v>47</v>
+      </c>
+      <c r="T10">
+        <v>52.4</v>
+      </c>
+      <c r="U10">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>34.932227851555695</v>
       </c>
@@ -916,16 +1181,40 @@
         <v>1.48350575834472</v>
       </c>
       <c r="K11">
+        <v>0.1023</v>
+      </c>
+      <c r="L11">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>7.51E-2</v>
+      </c>
+      <c r="N11">
         <v>0.16737891737891739</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>0.58404558404558404</v>
       </c>
-      <c r="M11">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>51</v>
+      </c>
+      <c r="S11">
+        <v>93.4</v>
+      </c>
+      <c r="T11">
+        <v>51.8</v>
+      </c>
+      <c r="U11">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>24.803253202506738</v>
       </c>
@@ -953,17 +1242,35 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="M12">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N12">
         <v>0.29843304843304841</v>
       </c>
-      <c r="L12">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M12">
+      <c r="O12">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P12">
         <v>0.34971509971509973</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="Q12">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>50.4</v>
+      </c>
+      <c r="S12">
+        <v>97.6</v>
+      </c>
+      <c r="T12">
+        <v>52.2</v>
+      </c>
+      <c r="U12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>23.445601376728014</v>
       </c>
@@ -991,17 +1298,35 @@
       <c r="J13">
         <v>1.8377321603128056</v>
       </c>
-      <c r="K13">
+      <c r="M13">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="N13">
         <v>7.1225071225071226E-3</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>0.13176638176638178</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0.51424501424501423</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="Q13">
+        <v>96.6</v>
+      </c>
+      <c r="R13">
+        <v>49</v>
+      </c>
+      <c r="S13">
+        <v>48</v>
+      </c>
+      <c r="T13">
+        <v>49</v>
+      </c>
+      <c r="U13">
+        <v>-0.52280000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12.318184845217566</v>
       </c>
@@ -1029,17 +1354,32 @@
       <c r="J14">
         <v>5.3485313459009207</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>0.72150997150997154</v>
       </c>
-      <c r="L14">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M14">
+      <c r="O14">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P14">
         <v>0.3368945868945869</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>51</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>49.6</v>
+      </c>
+      <c r="U14">
+        <v>0.84140000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>33.545196837459692</v>
       </c>
@@ -1067,17 +1407,29 @@
       <c r="J15">
         <v>1.3051470588235294</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>0.25997150997150997</v>
       </c>
-      <c r="L15">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M15">
+      <c r="O15">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P15">
         <v>8.5470085470085479E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="Q15">
+        <v>94</v>
+      </c>
+      <c r="R15">
+        <v>51.4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>25.56239291728653</v>
       </c>
@@ -1105,17 +1457,29 @@
       <c r="J16">
         <v>0.3147128245476003</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>0.21794871794871795</v>
       </c>
-      <c r="L16">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M16">
+      <c r="O16">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P16">
         <v>0.21438746438746437</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="Q16">
+        <v>79</v>
+      </c>
+      <c r="R16">
+        <v>51.8</v>
+      </c>
+      <c r="S16">
+        <v>98.8</v>
+      </c>
+      <c r="T16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>38.739429592400349</v>
       </c>
@@ -1143,17 +1507,29 @@
       <c r="J17">
         <v>2.7013251783893986</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.85754985754985757</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>0.88105413105413111</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>0.99643874643874641</v>
       </c>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="Q17">
+        <v>99.6</v>
+      </c>
+      <c r="R17">
+        <v>49.2</v>
+      </c>
+      <c r="S17">
+        <v>99.6</v>
+      </c>
+      <c r="T17">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>26.204342796449371</v>
       </c>
@@ -1181,17 +1557,29 @@
       <c r="J18">
         <v>1.6705217167823181</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>0.43660968660968658</v>
       </c>
-      <c r="L18">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M18">
+      <c r="O18">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P18">
         <v>0.33048433048433046</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="Q18">
+        <v>11.8</v>
+      </c>
+      <c r="R18">
+        <v>48.4</v>
+      </c>
+      <c r="S18">
+        <v>86.8</v>
+      </c>
+      <c r="T18">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12.674266828884994</v>
       </c>
@@ -1219,17 +1607,29 @@
       <c r="J19">
         <v>3.8529784537389102</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>7.1225071225071226E-2</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.93660968660968669</v>
       </c>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>53.6</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>28.840571438828512</v>
       </c>
@@ -1257,17 +1657,29 @@
       <c r="J20">
         <v>5.0735294117647056</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>0.84971509971509973</v>
       </c>
-      <c r="L20">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P20">
         <v>0.95655270655270663</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="Q20">
+        <v>74.8</v>
+      </c>
+      <c r="R20">
+        <v>52.4</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>26.789609327293231</v>
       </c>
@@ -1295,17 +1707,23 @@
       <c r="J21">
         <v>2.4782010096374485</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>0.78062678062678059</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>0.90883190883190879</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.95797720797720798</v>
       </c>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41.299444096647761</v>
       </c>
@@ -1333,17 +1751,23 @@
       <c r="J22">
         <v>3.6465638148667603</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>0.29202279202279202</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>7.1225071225071226E-2</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>0.11467236467236466</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4.2434694955567993</v>
       </c>
@@ -1371,17 +1795,23 @@
       <c r="J23">
         <v>1.4549615824750695</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>0.5883190883190883</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>0.88176638176638178</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.41737891737891741</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="S23">
+        <v>97.4</v>
+      </c>
+      <c r="T23">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11.673151961569113</v>
       </c>
@@ -1409,17 +1839,23 @@
       <c r="J24">
         <v>2.1050800278357689</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>0.37250712250712248</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>0.12179487179487179</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>0.7742165242165242</v>
       </c>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>37.638277991264275</v>
       </c>
@@ -1447,17 +1883,23 @@
       <c r="J25">
         <v>3.5471698113207548</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>0.95085470085470081</v>
       </c>
-      <c r="L25">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M25">
+      <c r="O25">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P25">
         <v>2.8490028490028491E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="S25">
+        <v>44.2</v>
+      </c>
+      <c r="T25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>31.95474685684043</v>
       </c>
@@ -1485,17 +1927,23 @@
       <c r="J26">
         <v>36.516329704510106</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0.39886039886039887</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>8.19088319088319E-2</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>6.4102564102564109E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="S26">
+        <v>42.4</v>
+      </c>
+      <c r="T26">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>39.097637291254145</v>
       </c>
@@ -1523,17 +1971,23 @@
       <c r="J27">
         <v>3.8926681783824644</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.98433048433048431</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>0.64886039886039892</v>
       </c>
-      <c r="M27">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="P27">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="S27">
+        <v>100</v>
+      </c>
+      <c r="T27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>42.221622456903141</v>
       </c>
@@ -1561,17 +2015,17 @@
       <c r="J28">
         <v>3.6233701103309932</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>0.64601139601139601</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>0.99358974358974361</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>3.3475783475783477E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>35.931773447262081</v>
       </c>
@@ -1599,17 +2053,17 @@
       <c r="J29">
         <v>0.87633885102239539</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>0.43945868945868949</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>1</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>4.2022792022792022E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>34.056912865514256</v>
       </c>
@@ -1637,17 +2091,17 @@
       <c r="J30">
         <v>0.59788440901425732</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>0.92450142450142447</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>0.41096866096866097</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>0.10683760683760683</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>47.921717486947806</v>
       </c>
@@ -1675,17 +2129,17 @@
       <c r="J31">
         <v>3.9699364039313934</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>0.89743589743589736</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>9.5441595441595445E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31.475399860919165</v>
       </c>
@@ -1713,17 +2167,17 @@
       <c r="J32">
         <v>68.150346191889227</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>0.12464387464387464</v>
       </c>
-      <c r="L32">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M32">
+      <c r="O32">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P32">
         <v>2.8490028490028491E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9.8394226041814274</v>
       </c>
@@ -1751,17 +2205,17 @@
       <c r="J33">
         <v>0.42207792207792205</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>0.78561253561253563</v>
       </c>
-      <c r="L33">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M33">
+      <c r="O33">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P33">
         <v>0.21367521367521369</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33.821119935962471</v>
       </c>
@@ -1789,17 +2243,17 @@
       <c r="J34">
         <v>0.91588785046728982</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>0.54131054131054135</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>0.19515669515669515</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>47.240400593863114</v>
       </c>
@@ -1827,17 +2281,17 @@
       <c r="J35">
         <v>0.11724578981027499</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.15669515669515671</v>
       </c>
-      <c r="L35">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M35">
+      <c r="O35">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P35">
         <v>1.5669515669515671E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>44.927267180103584</v>
       </c>
@@ -1865,17 +2319,17 @@
       <c r="J36">
         <v>0.36471392751310694</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.29843304843304841</v>
       </c>
-      <c r="L36">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M36">
+      <c r="O36">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P36">
         <v>1.3532763532763533E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>64.923085353207028</v>
       </c>
@@ -1903,17 +2357,17 @@
       <c r="J37">
         <v>3.1506849315068495</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>0.4024216524216524</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>3.1339031339031341E-2</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>0.2727920227920228</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>38.732399153981056</v>
       </c>
@@ -1941,17 +2395,17 @@
       <c r="J38">
         <v>0.60290490545354891</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>0.37037037037037035</v>
       </c>
-      <c r="L38">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M38">
+      <c r="O38">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P38">
         <v>0.88746438746438749</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>28.80686002100553</v>
       </c>
@@ -1979,17 +2433,17 @@
       <c r="J39">
         <v>1.6308119361554476</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>0.73005698005698005</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>0.74287749287749283</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>38.446537837355073</v>
       </c>
@@ -2017,17 +2471,17 @@
       <c r="J40">
         <v>0.74978371623570128</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>0.76139601139601143</v>
       </c>
-      <c r="L40">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M40">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
+      <c r="O40">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P40">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>35.099324478005187</v>
       </c>
@@ -2055,17 +2509,17 @@
       <c r="J41">
         <v>5.2388289676425268</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>0.10541310541310542</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>5.6980056980056983E-3</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>59.158965955490658</v>
       </c>
@@ -2093,17 +2547,17 @@
       <c r="J42">
         <v>1.5785319652722969</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>0.7378917378917379</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>1.1396011396011397E-2</v>
       </c>
-      <c r="M42">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="P42">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>46.261304776357683</v>
       </c>
@@ -2131,17 +2585,17 @@
       <c r="J43">
         <v>1.0025062656641603</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>0.88746438746438749</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>0.56695156695156701</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>0.11182336182336183</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>47.578352599172135</v>
       </c>
@@ -2169,17 +2623,17 @@
       <c r="J44">
         <v>5.7295645530939643</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>0.90384615384615385</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>0.10897435897435898</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>0.8475783475783476</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>11.712318138599963</v>
       </c>
@@ -2207,17 +2661,17 @@
       <c r="J45">
         <v>3.2924467398321502</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>0.69373219373219375</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>6.3390313390313383E-2</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>0.10683760683760685</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>49.414780417948421</v>
       </c>
@@ -2245,17 +2699,17 @@
       <c r="J46">
         <v>5.6391774432902269</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>0.74928774928774933</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>0.94373219373219364</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>2.3504273504273504E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>29.756768146598077</v>
       </c>
@@ -2283,17 +2737,17 @@
       <c r="J47">
         <v>0.43370508054522927</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>1</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>4.9857549857549865E-3</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>0.37962962962962965</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>49.829520642541233</v>
       </c>
@@ -2321,17 +2775,17 @@
       <c r="J48">
         <v>1.5726681127982649</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>0.49002849002849003</v>
       </c>
-      <c r="L48">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M48">
+      <c r="O48">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P48">
         <v>0.56481481481481488</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>49.610348979138529</v>
       </c>
@@ -2359,17 +2813,17 @@
       <c r="J49">
         <v>3.9781458084343524</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>9.472934472934473E-2</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>0.99786324786324787</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>0.86396011396011396</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>5.5905633526413157</v>
       </c>
@@ -2397,17 +2851,17 @@
       <c r="J50">
         <v>3.2054794520547945</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>0.99786324786324787</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>0.99857549857549854</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>0.95655270655270652</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4.9566514646457991</v>
       </c>
@@ -2435,17 +2889,17 @@
       <c r="J51">
         <v>0.45821514291948501</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>0.70441595441595439</v>
       </c>
-      <c r="L51">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M51">
+      <c r="O51">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P51">
         <v>0.93945868945868938</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>34.492624632359174</v>
       </c>
@@ -2473,17 +2927,17 @@
       <c r="J52">
         <v>3.5333707234997194</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>0.95370370370370372</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>0.93803418803418803</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>0.55698005698005693</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>33.612397416221818</v>
       </c>
@@ -2511,17 +2965,17 @@
       <c r="J53">
         <v>18.137651821862349</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>0.79131054131054124</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>0.98931623931623935</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>0.33119658119658124</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>33.544162748304196</v>
       </c>
@@ -2549,17 +3003,17 @@
       <c r="J54">
         <v>35.723771580345286</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>0.78917378917378911</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>4.2735042735042739E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>45.891314355486685</v>
       </c>
@@ -2587,17 +3041,17 @@
       <c r="J55">
         <v>3.0295250320924261</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>0.70868945868945865</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>0.71509971509971515</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>32.268501786016657</v>
       </c>
@@ -2625,17 +3079,17 @@
       <c r="J56">
         <v>0.19337016574585636</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="L56">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M56">
+      <c r="O56">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P56">
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>40.547144959130129</v>
       </c>
@@ -2663,17 +3117,17 @@
       <c r="J57">
         <v>1.2131715771230502</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>9.472934472934473E-2</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>2.8490028490028491E-3</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>1.0683760683760684E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>33.853546015797761</v>
       </c>
@@ -2701,17 +3155,17 @@
       <c r="J58">
         <v>3.5823382393779504</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>0.38675213675213677</v>
       </c>
-      <c r="L58">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M58">
+      <c r="O58">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P58">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>43.555432117272836</v>
       </c>
@@ -2739,17 +3193,17 @@
       <c r="J59">
         <v>2.674561045324622</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>0.62606837606837606</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>4.2735042735042739E-3</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>4.9857549857549865E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>45.942817829483495</v>
       </c>
@@ -2777,17 +3231,17 @@
       <c r="J60">
         <v>22.465866776996275</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>0.61538461538461542</v>
       </c>
-      <c r="L60">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M60">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13">
+      <c r="O60">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P60">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>30.23281967711619</v>
       </c>
@@ -2815,17 +3269,17 @@
       <c r="J61">
         <v>0.10809141445336627</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>0.6495726495726496</v>
       </c>
-      <c r="L61">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M61">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
+      <c r="O61">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P61">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>36.945967082380903</v>
       </c>
@@ -2853,17 +3307,17 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>0.61609686609686609</v>
       </c>
-      <c r="L62">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M62">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13">
+      <c r="O62">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P62">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>14.78259240689458</v>
       </c>
@@ -2891,17 +3345,17 @@
       <c r="J63">
         <v>4.8571428571428568</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>0.51139601139601143</v>
       </c>
-      <c r="L63">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M63">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13">
+      <c r="O63">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P63">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>45.535851859360186</v>
       </c>
@@ -2929,17 +3383,17 @@
       <c r="J64">
         <v>27.048741296197111</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>0.47720797720797725</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>0.63603988603988604</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>31.827797885511988</v>
       </c>
@@ -2967,17 +3421,17 @@
       <c r="J65">
         <v>19.444444444444446</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>0.10327635327635327</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>0.63960113960113962</v>
       </c>
-      <c r="M65">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="P65">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>42.360808313191697</v>
       </c>
@@ -3005,17 +3459,17 @@
       <c r="J66">
         <v>0.24983563445101906</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>0.86538461538461542</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>7.8347578347578353E-3</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>35.448070698657908</v>
       </c>
@@ -3043,17 +3497,17 @@
       <c r="J67">
         <v>19.396123260437374</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>0.9237891737891738</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>0.7592592592592593</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>1.4957264957264958E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>32.274368490203926</v>
       </c>
@@ -3081,17 +3535,17 @@
       <c r="J68">
         <v>2.2689768976897691</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>7.2649572649572641E-2</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>0.4145299145299145</v>
       </c>
-      <c r="M68">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
+      <c r="P68">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>34.881405097785212</v>
       </c>
@@ -3119,17 +3573,17 @@
       <c r="J69">
         <v>29.636835278858626</v>
       </c>
-      <c r="K69">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L69">
+      <c r="N69">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O69">
         <v>0.2727920227920228</v>
       </c>
-      <c r="M69">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13">
+      <c r="P69">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>27.683170011931697</v>
       </c>
@@ -3157,17 +3611,17 @@
       <c r="J70">
         <v>22.804532577903682</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>0.70370370370370372</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>3.6324786324786321E-2</v>
       </c>
-      <c r="M70">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13">
+      <c r="P70">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>42.748217416978257</v>
       </c>
@@ -3195,17 +3649,17 @@
       <c r="J71">
         <v>41.892754548356208</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>5.0569800569800573E-2</v>
       </c>
-      <c r="L71">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M71">
+      <c r="O71">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P71">
         <v>2.8490028490028491E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>43.745087833031548</v>
       </c>
@@ -3233,17 +3687,17 @@
       <c r="J72">
         <v>28.605596747189665</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>0.18091168091168092</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>0.94159544159544162</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>0.18874643874643876</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>49.742721145669414</v>
       </c>
@@ -3271,17 +3725,17 @@
       <c r="J73">
         <v>21.926564590456373</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>0.47649572649572647</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>0.93660968660968658</v>
       </c>
-      <c r="M73">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13">
+      <c r="P73">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>36.526307550864622</v>
       </c>
@@ -3309,17 +3763,17 @@
       <c r="J74">
         <v>34.289007347644429</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>0.87393162393162394</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>0.46438746438746437</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>34.788675469633091</v>
       </c>
@@ -3347,17 +3801,17 @@
       <c r="J75">
         <v>30.353469235085097</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>0.11182336182336183</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>0.46581196581196582</v>
       </c>
-      <c r="M75">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13">
+      <c r="P75">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>38.387333251463176</v>
       </c>
@@ -3385,17 +3839,17 @@
       <c r="J76">
         <v>15.928710665552771</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>1.2108262108262109E-2</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>0.84971509971509973</v>
       </c>
-      <c r="M76">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13">
+      <c r="P76">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>43.406581875703822</v>
       </c>
@@ -3423,17 +3877,17 @@
       <c r="J77">
         <v>27.707850281550183</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>0.19871794871794873</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>0.35612535612535612</v>
       </c>
-      <c r="M77">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13">
+      <c r="P77">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>18.860547216665651</v>
       </c>
@@ -3461,17 +3915,17 @@
       <c r="J78">
         <v>25.703399765533412</v>
       </c>
-      <c r="K78">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L78">
+      <c r="N78">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O78">
         <v>0.73646723646723644</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>0.99501424501424496</v>
       </c>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>35.47908852287631</v>
       </c>
@@ -3499,17 +3953,17 @@
       <c r="J79">
         <v>10.967250571210966</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>0.11609686609686609</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>0.56125356125356129</v>
       </c>
-      <c r="M79">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13">
+      <c r="P79">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>46.088048543969187</v>
       </c>
@@ -3537,17 +3991,17 @@
       <c r="J80">
         <v>28.109696376101862</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>4.0598290598290593E-2</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>0.30555555555555558</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>0.80982905982905984</v>
       </c>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>51.690404007347922</v>
       </c>
@@ -3575,17 +4029,17 @@
       <c r="J81">
         <v>31.632653061224492</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>0.76424501424501423</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <v>2.136752136752137E-3</v>
       </c>
-      <c r="M81">
+      <c r="P81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>36.349805289368447</v>
       </c>
@@ -3613,17 +4067,17 @@
       <c r="J82">
         <v>1.310153691106072</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>0.81552706552706544</v>
       </c>
-      <c r="L82">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M82">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13">
+      <c r="O82">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P82">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>18.712869117693913</v>
       </c>
@@ -3651,17 +4105,17 @@
       <c r="J83">
         <v>37.818821459982409</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>0.25854700854700852</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>0.24643874643874641</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>0.34971509971509973</v>
       </c>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>61.353601855006758</v>
       </c>
@@ -3689,17 +4143,17 @@
       <c r="J84">
         <v>25.425971877584779</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>0.73433048433048431</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>0.39387464387464388</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>0.32051282051282048</v>
       </c>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>7.5186175432863731</v>
       </c>
@@ -3727,17 +4181,17 @@
       <c r="J85">
         <v>9.1069941715237306</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>0.47507122507122512</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>0.25498575498575499</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>4.8433048433048437E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>28.446264748363649</v>
       </c>
@@ -3765,17 +4219,17 @@
       <c r="J86">
         <v>4.2509661286656053</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>0.77706552706552712</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>0.35754985754985757</v>
       </c>
-      <c r="M86">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13">
+      <c r="P86">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>59.713099196620199</v>
       </c>
@@ -3803,17 +4257,17 @@
       <c r="J87">
         <v>2.6820268202682027</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>0.31125356125356129</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>0.34401709401709402</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>4.9857549857549857E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>30.341842932671423</v>
       </c>
@@ -3841,17 +4295,17 @@
       <c r="J88">
         <v>1.6344229486324215</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>0.33475783475783472</v>
       </c>
-      <c r="L88">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M88">
+      <c r="O88">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P88">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>25.57677158683228</v>
       </c>
@@ -3879,17 +4333,17 @@
       <c r="J89">
         <v>11.179344033496163</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>0.64102564102564108</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>0.97435897435897434</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>14.522330178657331</v>
       </c>
@@ -3917,17 +4371,17 @@
       <c r="J90">
         <v>2.8348806366047743</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>0.66951566951566943</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>5.2706552706552709E-2</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>0.12179487179487181</v>
       </c>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>35.047136034064835</v>
       </c>
@@ -3955,17 +4409,17 @@
       <c r="J91">
         <v>4.1794087665647304</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>0.14814814814814814</v>
       </c>
-      <c r="L91">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M91">
+      <c r="O91">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P91">
         <v>0.46438746438746437</v>
       </c>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>29.310832204478778</v>
       </c>
@@ -3993,17 +4447,17 @@
       <c r="J92">
         <v>2.9747638516847594</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>0.42735042735042739</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>0.48005698005698005</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>0.40811965811965811</v>
       </c>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>68.342327593042555</v>
       </c>
@@ -4031,17 +4485,17 @@
       <c r="J93">
         <v>1.1337868480725624</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>0.81339031339031331</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>0.59116809116809121</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>0.98433048433048431</v>
       </c>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>51.373486075926508</v>
       </c>
@@ -4069,17 +4523,17 @@
       <c r="J94">
         <v>27.759118956494572</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>0.1631054131054131</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>4.1310541310541307E-2</v>
       </c>
-      <c r="M94">
+      <c r="P94">
         <v>0.28917378917378916</v>
       </c>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>41.020639907175791</v>
       </c>
@@ -4107,17 +4561,17 @@
       <c r="J95">
         <v>11.123403399376446</v>
       </c>
-      <c r="K95">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L95">
+      <c r="N95">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O95">
         <v>0.24002849002849003</v>
       </c>
-      <c r="M95">
+      <c r="P95">
         <v>3.1339031339031341E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>22.130663287814574</v>
       </c>
@@ -4145,17 +4599,17 @@
       <c r="J96">
         <v>7.3756290735087866</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>0.99287749287749283</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>0.10683760683760685</v>
       </c>
-      <c r="M96">
+      <c r="P96">
         <v>0.92165242165242156</v>
       </c>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>52.752346515375436</v>
       </c>
@@ -4183,17 +4637,17 @@
       <c r="J97">
         <v>19.137391304347826</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>0.4145299145299145</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>5.6980056980056981E-2</v>
       </c>
-      <c r="M97">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13">
+      <c r="P97">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>34.87596128906943</v>
       </c>
@@ -4221,17 +4675,17 @@
       <c r="J98">
         <v>3.679175864606328E-2</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>0.46367521367521369</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>0.87820512820512819</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>0.18660968660968663</v>
       </c>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>22.446327166489652</v>
       </c>
@@ -4259,17 +4713,17 @@
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="K99">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L99">
+      <c r="N99">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O99">
         <v>8.4757834757834757E-2</v>
       </c>
-      <c r="M99">
+      <c r="P99">
         <v>0.96937321937321941</v>
       </c>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>53.498139535618392</v>
       </c>
@@ -4297,17 +4751,17 @@
       <c r="J100">
         <v>15.773251139104797</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>0.82692307692307687</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <v>0.64173789173789175</v>
       </c>
-      <c r="M100">
+      <c r="P100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>40.508661255608565</v>
       </c>
@@ -4335,17 +4789,17 @@
       <c r="J101">
         <v>10.772790374826469</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>0.52706552706552701</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>0.73717948717948723</v>
       </c>
-      <c r="M101">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13">
+      <c r="P101">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>35.669196903485471</v>
       </c>
@@ -4373,17 +4827,17 @@
       <c r="J102">
         <v>40.631099544567341</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>0.80199430199430199</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="M102">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:13">
+      <c r="P102">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>51.525602795681536</v>
       </c>
@@ -4411,17 +4865,17 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L103">
+      <c r="N103">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O103">
         <v>0.99572649572649574</v>
       </c>
-      <c r="M103">
+      <c r="P103">
         <v>0.93945868945868949</v>
       </c>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>50.96577747017006</v>
       </c>
@@ -4449,17 +4903,17 @@
       <c r="J104">
         <v>18.067691071607914</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>0.58689458689458684</v>
       </c>
-      <c r="L104">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M104">
+      <c r="O104">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P104">
         <v>9.5441595441595445E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>24.755905192302983</v>
       </c>
@@ -4487,17 +4941,17 @@
       <c r="J105">
         <v>35.474006116207953</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>0.51638176638176647</v>
       </c>
-      <c r="L105">
+      <c r="O105">
         <v>0.61823361823361822</v>
       </c>
-      <c r="M105">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13">
+      <c r="P105">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>19.090049327128607</v>
       </c>
@@ -4525,17 +4979,17 @@
       <c r="J106">
         <v>4.0983606557377046</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>0.89102564102564097</v>
       </c>
-      <c r="L106">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M106">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13">
+      <c r="O106">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P106">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>35.617718992188486</v>
       </c>
@@ -4563,17 +5017,17 @@
       <c r="J107">
         <v>3.4242232086239692</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>0.49430199430199429</v>
       </c>
-      <c r="L107">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M107">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13">
+      <c r="O107">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P107">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>47.674449936389998</v>
       </c>
@@ -4601,17 +5055,17 @@
       <c r="J108">
         <v>37.142857142857146</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>0.60826210826210825</v>
       </c>
-      <c r="L108">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M108">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13">
+      <c r="O108">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P108">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>48.419901739718718</v>
       </c>
@@ -4639,17 +5093,17 @@
       <c r="J109">
         <v>3.3463469046291134</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>0.400997150997151</v>
       </c>
-      <c r="L109">
+      <c r="O109">
         <v>0.99928774928774922</v>
       </c>
-      <c r="M109">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13">
+      <c r="P109">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>46.085758524536054</v>
       </c>
@@ -4677,17 +5131,17 @@
       <c r="J110">
         <v>2.5130890052356021</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>4.2022792022792022E-2</v>
       </c>
-      <c r="L110">
+      <c r="O110">
         <v>0.34971509971509973</v>
       </c>
-      <c r="M110">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13">
+      <c r="P110">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>13.917835613377822</v>
       </c>
@@ -4715,17 +5169,17 @@
       <c r="J111">
         <v>45.59270516717325</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>1.0683760683760684E-2</v>
       </c>
-      <c r="L111">
+      <c r="O111">
         <v>0.40598290598290598</v>
       </c>
-      <c r="M111">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13">
+      <c r="P111">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>42.683208764278938</v>
       </c>
@@ -4753,17 +5207,17 @@
       <c r="J112">
         <v>7.2272602363286618</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>0.31908831908831908</v>
       </c>
-      <c r="L112">
+      <c r="O112">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="M112">
+      <c r="P112">
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>21.557216104973207</v>
       </c>
@@ -4791,17 +5245,17 @@
       <c r="J113">
         <v>2.3170089520800423</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>0.85113960113960108</v>
       </c>
-      <c r="L113">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M113">
+      <c r="O113">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P113">
         <v>0.78133903133903138</v>
       </c>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>19.012494945552703</v>
       </c>
@@ -4829,17 +5283,17 @@
       <c r="J114">
         <v>0.79537237888647871</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>0.92450142450142447</v>
       </c>
-      <c r="L114">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M114">
+      <c r="O114">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P114">
         <v>0.32193732193732194</v>
       </c>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>66.76103953123598</v>
       </c>
@@ -4867,17 +5321,17 @@
       <c r="J115">
         <v>5.2181351582549187</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>0.89458689458689455</v>
       </c>
-      <c r="L115">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M115">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13">
+      <c r="O115">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P115">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>21.303209463175339</v>
       </c>
@@ -4905,17 +5359,17 @@
       <c r="J116">
         <v>17.119190059825126</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>0.23076923076923078</v>
       </c>
-      <c r="L116">
+      <c r="O116">
         <v>0.66880341880341876</v>
       </c>
-      <c r="M116">
+      <c r="P116">
         <v>3.2763532763532763E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>30.036551110909802</v>
       </c>
@@ -4943,17 +5397,17 @@
       <c r="J117">
         <v>0.22874571101791841</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>6.0541310541310539E-2</v>
       </c>
-      <c r="L117">
+      <c r="O117">
         <v>0.10185185185185186</v>
       </c>
-      <c r="M117">
+      <c r="P117">
         <v>0.52564102564102566</v>
       </c>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>69.59737577167418</v>
       </c>
@@ -4981,17 +5435,17 @@
       <c r="J118">
         <v>5.0530570995452252E-2</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>0.75071225071225078</v>
       </c>
-      <c r="L118">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M118">
+      <c r="O118">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P118">
         <v>0.97507122507122501</v>
       </c>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>50.381312120412787</v>
       </c>
@@ -5019,17 +5473,17 @@
       <c r="J119">
         <v>0.44527771267869698</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>0.45940170940170943</v>
       </c>
-      <c r="L119">
+      <c r="O119">
         <v>0.72792022792022792</v>
       </c>
-      <c r="M119">
+      <c r="P119">
         <v>0.18091168091168092</v>
       </c>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>37.177615481260631</v>
       </c>
@@ -5057,17 +5511,17 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>7.4786324786324784E-2</v>
       </c>
-      <c r="L120">
+      <c r="O120">
         <v>0.97364672364672367</v>
       </c>
-      <c r="M120">
+      <c r="P120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>50.70728015973355</v>
       </c>
@@ -5095,17 +5549,17 @@
       <c r="J121">
         <v>0</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>0.61752136752136755</v>
       </c>
-      <c r="L121">
+      <c r="O121">
         <v>0.64387464387464388</v>
       </c>
-      <c r="M121">
+      <c r="P121">
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>46.916244316403201</v>
       </c>
@@ -5133,17 +5587,17 @@
       <c r="J122">
         <v>0.29888983774551664</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>0.90740740740740744</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <v>0.98646723646723644</v>
       </c>
-      <c r="M122">
+      <c r="P122">
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>59.069142506546676</v>
       </c>
@@ -5171,17 +5625,17 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>0.1623931623931624</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <v>0.77706552706552712</v>
       </c>
-      <c r="M123">
+      <c r="P123">
         <v>1.4957264957264958E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>47.238738343797806</v>
       </c>
@@ -5209,17 +5663,17 @@
       <c r="J124">
         <v>0.3222687721559781</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>0.50071225071225067</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <v>6.7663817663817669E-2</v>
       </c>
-      <c r="M124">
+      <c r="P124">
         <v>0.27849002849002846</v>
       </c>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>51.860764920781165</v>
       </c>
@@ -5247,17 +5701,17 @@
       <c r="J125">
         <v>1.7418032786885245</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>0.10968660968660968</v>
       </c>
-      <c r="L125">
+      <c r="O125">
         <v>4.7720797720797722E-2</v>
       </c>
-      <c r="M125">
+      <c r="P125">
         <v>0.90598290598290598</v>
       </c>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>36.406858156116066</v>
       </c>
@@ -5285,17 +5739,17 @@
       <c r="J126">
         <v>4.4350580781414992</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>0.34686609686609687</v>
       </c>
-      <c r="L126">
+      <c r="O126">
         <v>0.98860398860398857</v>
       </c>
-      <c r="M126">
+      <c r="P126">
         <v>0.68660968660968658</v>
       </c>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>31.447284747909098</v>
       </c>
@@ -5323,17 +5777,17 @@
       <c r="J127">
         <v>1.2446657183499288</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>0.73148148148148151</v>
       </c>
-      <c r="L127">
+      <c r="O127">
         <v>3.2051282051282048E-2</v>
       </c>
-      <c r="M127">
+      <c r="P127">
         <v>0.24430199430199431</v>
       </c>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>45.78084590867801</v>
       </c>
@@ -5361,17 +5815,17 @@
       <c r="J128">
         <v>4.0956826137689619</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>0.34116809116809121</v>
       </c>
-      <c r="L128">
+      <c r="O128">
         <v>0.68803418803418803</v>
       </c>
-      <c r="M128">
+      <c r="P128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>49.423937273898169</v>
       </c>
@@ -5399,17 +5853,17 @@
       <c r="J129">
         <v>10.378912685337728</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>0.14173789173789175</v>
       </c>
-      <c r="L129">
+      <c r="O129">
         <v>0.3995726495726496</v>
       </c>
-      <c r="M129">
+      <c r="P129">
         <v>0.89601139601139601</v>
       </c>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>5.3646236978875486</v>
       </c>
@@ -5437,17 +5891,17 @@
       <c r="J130">
         <v>3.2652348524532915</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>0.36039886039886038</v>
       </c>
-      <c r="L130">
+      <c r="O130">
         <v>0.75854700854700852</v>
       </c>
-      <c r="M130">
+      <c r="P130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>4.0595492436218317</v>
       </c>
@@ -5475,17 +5929,17 @@
       <c r="J131">
         <v>2.497883149872989</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>0.2378917378917379</v>
       </c>
-      <c r="L131">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M131">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13">
+      <c r="O131">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P131">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2.3214971468820762</v>
       </c>
@@ -5513,17 +5967,17 @@
       <c r="J132">
         <v>4.6069315300084535</v>
       </c>
-      <c r="K132">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L132">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M132">
+      <c r="N132">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O132">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P132">
         <v>0.21011396011396011</v>
       </c>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>31.825392103552694</v>
       </c>
@@ -5551,17 +6005,17 @@
       <c r="J133">
         <v>35.468208092485547</v>
       </c>
-      <c r="K133">
+      <c r="N133">
         <v>6.623931623931624E-2</v>
       </c>
-      <c r="L133">
+      <c r="O133">
         <v>0.96082621082621089</v>
       </c>
-      <c r="M133">
+      <c r="P133">
         <v>0.12749287749287749</v>
       </c>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>17.494616675427569</v>
       </c>
@@ -5589,17 +6043,17 @@
       <c r="J134">
         <v>34.790486976217437</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="L134">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M134">
+      <c r="O134">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>26.079393182410517</v>
       </c>
@@ -5627,17 +6081,17 @@
       <c r="J135">
         <v>39.917355371900825</v>
       </c>
-      <c r="K135">
+      <c r="N135">
         <v>0.89173789173789175</v>
       </c>
-      <c r="L135">
+      <c r="O135">
         <v>0.66381766381766383</v>
       </c>
-      <c r="M135">
+      <c r="P135">
         <v>0.27706552706552706</v>
       </c>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>32.503270301772083</v>
       </c>
@@ -5665,17 +6119,17 @@
       <c r="J136">
         <v>5.0635654435134354</v>
       </c>
-      <c r="K136">
+      <c r="N136">
         <v>0.40170940170940173</v>
       </c>
-      <c r="L136">
+      <c r="O136">
         <v>0.76709401709401703</v>
       </c>
-      <c r="M136">
+      <c r="P136">
         <v>0.11894586894586895</v>
       </c>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>36.847575935611204</v>
       </c>
@@ -5703,17 +6157,17 @@
       <c r="J137">
         <v>3.5332252836304701</v>
       </c>
-      <c r="K137">
+      <c r="N137">
         <v>0.34401709401709402</v>
       </c>
-      <c r="L137">
+      <c r="O137">
         <v>0.94729344729344733</v>
       </c>
-      <c r="M137">
+      <c r="P137">
         <v>0.17877492877492879</v>
       </c>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>49.126045935781434</v>
       </c>
@@ -5741,17 +6195,17 @@
       <c r="J138">
         <v>13.240748727680495</v>
       </c>
-      <c r="K138">
+      <c r="N138">
         <v>0.10612535612535613</v>
       </c>
-      <c r="L138">
+      <c r="O138">
         <v>0.72507122507122501</v>
       </c>
-      <c r="M138">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13">
+      <c r="P138">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>23.477213260171922</v>
       </c>
@@ -5779,17 +6233,17 @@
       <c r="J139">
         <v>10.794427310432839</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>0.64031339031339041</v>
       </c>
-      <c r="L139">
+      <c r="O139">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="M139">
+      <c r="P139">
         <v>0.21652421652421652</v>
       </c>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>27.786995769520754</v>
       </c>
@@ -5817,17 +6271,17 @@
       <c r="J140">
         <v>17.635455023671749</v>
       </c>
-      <c r="K140">
+      <c r="N140">
         <v>0.13461538461538461</v>
       </c>
-      <c r="L140">
+      <c r="O140">
         <v>0.88034188034188032</v>
       </c>
-      <c r="M140">
+      <c r="P140">
         <v>0.23504273504273504</v>
       </c>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>45.912423294809692</v>
       </c>
@@ -5855,17 +6309,17 @@
       <c r="J141">
         <v>1.9407290847102021</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>0.95014245014245013</v>
       </c>
-      <c r="L141">
+      <c r="O141">
         <v>0.29202279202279202</v>
       </c>
-      <c r="M141">
+      <c r="P141">
         <v>0.3354700854700855</v>
       </c>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>2.7543022275795583</v>
       </c>
@@ -5893,17 +6347,17 @@
       <c r="J142">
         <v>0.70616883116883111</v>
       </c>
-      <c r="K142">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L142">
+      <c r="N142">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O142">
         <v>0.49287749287749288</v>
       </c>
-      <c r="M142">
+      <c r="P142">
         <v>0.18874643874643876</v>
       </c>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>24.825176596229049</v>
       </c>
@@ -5931,17 +6385,17 @@
       <c r="J143">
         <v>0.68700365561578214</v>
       </c>
-      <c r="K143">
+      <c r="N143">
         <v>0.56125356125356118</v>
       </c>
-      <c r="L143">
+      <c r="O143">
         <v>6.2678062678062682E-2</v>
       </c>
-      <c r="M143">
+      <c r="P143">
         <v>0.38532763532763536</v>
       </c>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>27.429475035972668</v>
       </c>
@@ -5969,17 +6423,17 @@
       <c r="J144">
         <v>19.844357976653697</v>
       </c>
-      <c r="K144">
+      <c r="N144">
         <v>1.1396011396011395E-2</v>
       </c>
-      <c r="L144">
+      <c r="O144">
         <v>0.59188034188034178</v>
       </c>
-      <c r="M144">
+      <c r="P144">
         <v>0.97649572649572647</v>
       </c>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>43.398802672410035</v>
       </c>
@@ -6007,17 +6461,17 @@
       <c r="J145">
         <v>0.75242972097397842</v>
       </c>
-      <c r="K145">
+      <c r="N145">
         <v>0.52564102564102566</v>
       </c>
-      <c r="L145">
+      <c r="O145">
         <v>0.55698005698005693</v>
       </c>
-      <c r="M145">
+      <c r="P145">
         <v>0.95156695156695159</v>
       </c>
     </row>
-    <row r="146" spans="2:13">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>43.366470524711296</v>
       </c>
@@ -6045,17 +6499,17 @@
       <c r="J146">
         <v>6.5546907005325687</v>
       </c>
-      <c r="K146">
+      <c r="N146">
         <v>0.31552706552706555</v>
       </c>
-      <c r="L146">
+      <c r="O146">
         <v>0.25356125356125359</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>0.99928774928774922</v>
       </c>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>30.056477501455728</v>
       </c>
@@ -6083,17 +6537,17 @@
       <c r="J147">
         <v>5.508474576271186</v>
       </c>
-      <c r="K147">
+      <c r="N147">
         <v>0.42307692307692313</v>
       </c>
-      <c r="L147">
+      <c r="O147">
         <v>1.4957264957264958E-2</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>0.61253561253561251</v>
       </c>
     </row>
-    <row r="148" spans="2:13">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>29.239486462593632</v>
       </c>
@@ -6121,17 +6575,17 @@
       <c r="J148">
         <v>13.928736695974086</v>
       </c>
-      <c r="K148">
+      <c r="N148">
         <v>0.97507122507122501</v>
       </c>
-      <c r="L148">
+      <c r="O148">
         <v>0.43447293447293445</v>
       </c>
-      <c r="M148">
+      <c r="P148">
         <v>0.13746438746438747</v>
       </c>
     </row>
-    <row r="149" spans="2:13">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>18.205902851821609</v>
       </c>
@@ -6159,17 +6613,17 @@
       <c r="J149">
         <v>1.5621513055121625</v>
       </c>
-      <c r="K149">
+      <c r="N149">
         <v>9.5441595441595445E-2</v>
       </c>
-      <c r="L149">
+      <c r="O149">
         <v>0.98076923076923073</v>
       </c>
-      <c r="M149">
+      <c r="P149">
         <v>0.24145299145299143</v>
       </c>
     </row>
-    <row r="150" spans="2:13">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>16.842865228510927</v>
       </c>
@@ -6197,17 +6651,17 @@
       <c r="J150">
         <v>12.180498579993689</v>
       </c>
-      <c r="K150">
+      <c r="N150">
         <v>0.23005698005698005</v>
       </c>
-      <c r="L150">
+      <c r="O150">
         <v>0.99358974358974361</v>
       </c>
-      <c r="M150">
+      <c r="P150">
         <v>0.53490028490028485</v>
       </c>
     </row>
-    <row r="151" spans="2:13">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>36.972828424888043</v>
       </c>
@@ -6235,17 +6689,17 @@
       <c r="J151">
         <v>2.9401062513645293</v>
       </c>
-      <c r="K151">
+      <c r="N151">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="L151">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M151">
+      <c r="O151">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P151">
         <v>1.1396011396011397E-2</v>
       </c>
     </row>
-    <row r="152" spans="2:13">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>36.356713153933484</v>
       </c>
@@ -6273,17 +6727,17 @@
       <c r="J152">
         <v>11.384126984126985</v>
       </c>
-      <c r="K152">
+      <c r="N152">
         <v>6.9088319088319083E-2</v>
       </c>
-      <c r="L152">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M152">
+      <c r="O152">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P152">
         <v>0.68304843304843299</v>
       </c>
     </row>
-    <row r="153" spans="2:13">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>14.744623063588572</v>
       </c>
@@ -6311,17 +6765,17 @@
       <c r="J153">
         <v>8.0924855491329488</v>
       </c>
-      <c r="K153">
+      <c r="N153">
         <v>0.33404558404558404</v>
       </c>
-      <c r="L153">
+      <c r="O153">
         <v>1</v>
       </c>
-      <c r="M153">
+      <c r="P153">
         <v>0.57977207977207978</v>
       </c>
     </row>
-    <row r="154" spans="2:13">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.371129658237303</v>
       </c>
@@ -6349,17 +6803,17 @@
       <c r="J154">
         <v>10.277382645803698</v>
       </c>
-      <c r="K154">
+      <c r="N154">
         <v>0.53418803418803418</v>
       </c>
-      <c r="L154">
+      <c r="O154">
         <v>0.89102564102564097</v>
       </c>
-      <c r="M154">
+      <c r="P154">
         <v>0.25356125356125359</v>
       </c>
     </row>
-    <row r="155" spans="2:13">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>14.521195021270966</v>
       </c>
@@ -6387,17 +6841,17 @@
       <c r="J155">
         <v>9.5584988962472401</v>
       </c>
-      <c r="K155">
+      <c r="N155">
         <v>0.79059829059829068</v>
       </c>
-      <c r="L155">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M155">
+      <c r="O155">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P155">
         <v>8.11965811965812E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:13">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>41.14738433452424</v>
       </c>
@@ -6425,17 +6879,17 @@
       <c r="J156">
         <v>1.3370096764124439</v>
       </c>
-      <c r="K156">
+      <c r="N156">
         <v>0.53561253561253563</v>
       </c>
-      <c r="L156">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M156">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13">
+      <c r="O156">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P156">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>39.386072771248429</v>
       </c>
@@ -6463,17 +6917,17 @@
       <c r="J157">
         <v>5.8679026651216688</v>
       </c>
-      <c r="K157">
+      <c r="N157">
         <v>4.9857549857549859E-2</v>
       </c>
-      <c r="L157">
+      <c r="O157">
         <v>0.19301994301994302</v>
       </c>
-      <c r="M157">
+      <c r="P157">
         <v>0.99643874643874641</v>
       </c>
     </row>
-    <row r="158" spans="2:13">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>33.224901296093869</v>
       </c>
@@ -6501,17 +6955,17 @@
       <c r="J158">
         <v>4.8953250432866362</v>
       </c>
-      <c r="K158">
+      <c r="N158">
         <v>7.8347578347578353E-3</v>
       </c>
-      <c r="L158">
+      <c r="O158">
         <v>1</v>
       </c>
-      <c r="M158">
+      <c r="P158">
         <v>0.65099715099715105</v>
       </c>
     </row>
-    <row r="159" spans="2:13">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>13.663452247417077</v>
       </c>
@@ -6539,17 +6993,17 @@
       <c r="J159">
         <v>4.3221110100090989</v>
       </c>
-      <c r="K159">
+      <c r="N159">
         <v>0.20299145299145299</v>
       </c>
-      <c r="L159">
+      <c r="O159">
         <v>1</v>
       </c>
-      <c r="M159">
+      <c r="P159">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:13">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>18.567064032948757</v>
       </c>
@@ -6577,17 +7031,17 @@
       <c r="J160">
         <v>4.9876399592845715</v>
       </c>
-      <c r="K160">
+      <c r="N160">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="L160">
+      <c r="O160">
         <v>0.99287749287749283</v>
       </c>
-      <c r="M160">
+      <c r="P160">
         <v>2.9914529914529916E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:13">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>43.022959520448175</v>
       </c>
@@ -6615,17 +7069,17 @@
       <c r="J161">
         <v>7.4076358477764757</v>
       </c>
-      <c r="K161">
+      <c r="N161">
         <v>0.97507122507122501</v>
       </c>
-      <c r="L161">
+      <c r="O161">
         <v>0.76923076923076916</v>
       </c>
-      <c r="M161">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:13">
+      <c r="P161">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>42.665286460301928</v>
       </c>
@@ -6653,17 +7107,17 @@
       <c r="J162">
         <v>0.26770178021683844</v>
       </c>
-      <c r="K162">
+      <c r="N162">
         <v>0.2592592592592593</v>
       </c>
-      <c r="L162">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M162">
+      <c r="O162">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P162">
         <v>0.97507122507122501</v>
       </c>
     </row>
-    <row r="163" spans="2:13">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>37.080295110886773</v>
       </c>
@@ -6691,17 +7145,17 @@
       <c r="J163">
         <v>1.4794181367997525</v>
       </c>
-      <c r="K163">
+      <c r="N163">
         <v>0.12037037037037038</v>
       </c>
-      <c r="L163">
+      <c r="O163">
         <v>1</v>
       </c>
-      <c r="M163">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:13">
+      <c r="P163">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>44.177383852540373</v>
       </c>
@@ -6729,17 +7183,17 @@
       <c r="J164">
         <v>10.090774751952711</v>
       </c>
-      <c r="K164">
+      <c r="N164">
         <v>0.36752136752136755</v>
       </c>
-      <c r="L164">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M164">
+      <c r="O164">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P164">
         <v>0.4665242165242165</v>
       </c>
     </row>
-    <row r="165" spans="2:13">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>16.302154989377243</v>
       </c>
@@ -6767,17 +7221,17 @@
       <c r="J165">
         <v>2.5457317073170729</v>
       </c>
-      <c r="K165">
+      <c r="N165">
         <v>0.31552706552706555</v>
       </c>
-      <c r="L165">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M165">
+      <c r="O165">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P165">
         <v>0.68233618233618243</v>
       </c>
     </row>
-    <row r="166" spans="2:13">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>41.736567792880315</v>
       </c>
@@ -6805,17 +7259,17 @@
       <c r="J166">
         <v>2.1044176706827309</v>
       </c>
-      <c r="K166">
+      <c r="N166">
         <v>0.16595441595441596</v>
       </c>
-      <c r="L166">
+      <c r="O166">
         <v>0.65740740740740744</v>
       </c>
-      <c r="M166">
+      <c r="P166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:13">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>31.324961788392894</v>
       </c>
@@ -6843,17 +7297,17 @@
       <c r="J167">
         <v>0.25641025641025639</v>
       </c>
-      <c r="K167">
+      <c r="N167">
         <v>0.73860398860398857</v>
       </c>
-      <c r="L167">
+      <c r="O167">
         <v>0.50997150997150997</v>
       </c>
-      <c r="M167">
+      <c r="P167">
         <v>0.32264957264957267</v>
       </c>
     </row>
-    <row r="168" spans="2:13">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>13.046577887074982</v>
       </c>
@@ -6881,17 +7335,17 @@
       <c r="J168">
         <v>5.375859348585597</v>
       </c>
-      <c r="K168">
+      <c r="N168">
         <v>7.8347578347578353E-3</v>
       </c>
-      <c r="L168">
+      <c r="O168">
         <v>0.38675213675213677</v>
       </c>
-      <c r="M168">
+      <c r="P168">
         <v>0.20299145299145299</v>
       </c>
     </row>
-    <row r="169" spans="2:13">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>46.073728956513634</v>
       </c>
@@ -6919,17 +7373,17 @@
       <c r="J169">
         <v>0.62780269058295957</v>
       </c>
-      <c r="K169">
+      <c r="N169">
         <v>0.44373219373219375</v>
       </c>
-      <c r="L169">
+      <c r="O169">
         <v>0.99287749287749283</v>
       </c>
-      <c r="M169">
+      <c r="P169">
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="170" spans="2:13">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>42.62722668957182</v>
       </c>
@@ -6957,17 +7411,17 @@
       <c r="J170">
         <v>11.848461734045259</v>
       </c>
-      <c r="K170">
+      <c r="N170">
         <v>0.77279202279202286</v>
       </c>
-      <c r="L170">
+      <c r="O170">
         <v>0.89672364672364679</v>
       </c>
-      <c r="M170">
+      <c r="P170">
         <v>0.88532763532763536</v>
       </c>
     </row>
-    <row r="171" spans="2:13">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>26.982108515155456</v>
       </c>
@@ -6995,17 +7449,17 @@
       <c r="J171">
         <v>0.26893769610040341</v>
       </c>
-      <c r="K171">
+      <c r="N171">
         <v>0.31054131054131051</v>
       </c>
-      <c r="L171">
+      <c r="O171">
         <v>0.1858974358974359</v>
       </c>
-      <c r="M171">
+      <c r="P171">
         <v>0.70512820512820507</v>
       </c>
     </row>
-    <row r="172" spans="2:13">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>14.81209428624474</v>
       </c>
@@ -7033,17 +7487,17 @@
       <c r="J172">
         <v>1.6126882580301212</v>
       </c>
-      <c r="K172">
+      <c r="N172">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="L172">
+      <c r="O172">
         <v>0.63247863247863245</v>
       </c>
-      <c r="M172">
+      <c r="P172">
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="173" spans="2:13">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>13.592947737461381</v>
       </c>
@@ -7071,17 +7525,17 @@
       <c r="J173">
         <v>5.8071454176126176</v>
       </c>
-      <c r="K173">
+      <c r="N173">
         <v>1.9943019943019943E-2</v>
       </c>
-      <c r="L173">
+      <c r="O173">
         <v>0.8198005698005697</v>
       </c>
-      <c r="M173">
+      <c r="P173">
         <v>0.98789173789173779</v>
       </c>
     </row>
-    <row r="174" spans="2:13">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>40.557180203514442</v>
       </c>
@@ -7109,17 +7563,17 @@
       <c r="J174">
         <v>0.73002568608895491</v>
       </c>
-      <c r="K174">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L174">
+      <c r="N174">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O174">
         <v>0.93233618233618243</v>
       </c>
-      <c r="M174">
+      <c r="P174">
         <v>0.99572649572649574</v>
       </c>
     </row>
-    <row r="175" spans="2:13">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>13.165786342495799</v>
       </c>
@@ -7147,17 +7601,17 @@
       <c r="J175">
         <v>3.140794223826715</v>
       </c>
-      <c r="K175">
+      <c r="N175">
         <v>0.46225071225071224</v>
       </c>
-      <c r="L175">
+      <c r="O175">
         <v>0.31980056980056981</v>
       </c>
-      <c r="M175">
+      <c r="P175">
         <v>0.3368945868945869</v>
       </c>
     </row>
-    <row r="176" spans="2:13">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>37.799959093648432</v>
       </c>
@@ -7185,17 +7639,17 @@
       <c r="J176">
         <v>0.3732784142103231</v>
       </c>
-      <c r="K176">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L176">
+      <c r="N176">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O176">
         <v>0.9971509971509972</v>
       </c>
-      <c r="M176">
+      <c r="P176">
         <v>4.7008547008547008E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:13">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>43.852414785571654</v>
       </c>
@@ -7223,17 +7677,17 @@
       <c r="J177">
         <v>19.437834622248662</v>
       </c>
-      <c r="K177">
+      <c r="N177">
         <v>0.97293447293447288</v>
       </c>
-      <c r="L177">
+      <c r="O177">
         <v>8.7606837606837601E-2</v>
       </c>
-      <c r="M177">
+      <c r="P177">
         <v>0.95868945868945865</v>
       </c>
     </row>
-    <row r="178" spans="2:13">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>51.013867599216987</v>
       </c>
@@ -7261,17 +7715,17 @@
       <c r="J178">
         <v>0.32467532467532467</v>
       </c>
-      <c r="K178">
+      <c r="N178">
         <v>0.24430199430199429</v>
       </c>
-      <c r="L178">
+      <c r="O178">
         <v>0.91310541310541304</v>
       </c>
-      <c r="M178">
+      <c r="P178">
         <v>0.46794871794871795</v>
       </c>
     </row>
-    <row r="179" spans="2:13">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>50.364218397734803</v>
       </c>
@@ -7299,17 +7753,17 @@
       <c r="J179">
         <v>2.1475357027810587</v>
       </c>
-      <c r="K179">
+      <c r="N179">
         <v>0.14957264957264957</v>
       </c>
-      <c r="L179">
+      <c r="O179">
         <v>0.7742165242165242</v>
       </c>
-      <c r="M179">
+      <c r="P179">
         <v>0.51139601139601143</v>
       </c>
     </row>
-    <row r="180" spans="2:13">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>43.690860021197715</v>
       </c>
@@ -7337,17 +7791,17 @@
       <c r="J180">
         <v>2.2736771712781079</v>
       </c>
-      <c r="K180">
+      <c r="N180">
         <v>0.23148148148148148</v>
       </c>
-      <c r="L180">
+      <c r="O180">
         <v>2.8490028490028491E-3</v>
       </c>
-      <c r="M180">
+      <c r="P180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:13">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>13.369117018138178</v>
       </c>
@@ -7375,17 +7829,17 @@
       <c r="J181">
         <v>14.715719063545151</v>
       </c>
-      <c r="K181">
+      <c r="N181">
         <v>0.11396011396011396</v>
       </c>
-      <c r="L181">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M181">
+      <c r="O181">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:13">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>34.394366007091676</v>
       </c>
@@ -7413,17 +7867,17 @@
       <c r="J182">
         <v>4.5964885841308121</v>
       </c>
-      <c r="K182">
+      <c r="N182">
         <v>6.1965811965811968E-2</v>
       </c>
-      <c r="L182">
+      <c r="O182">
         <v>1</v>
       </c>
-      <c r="M182">
+      <c r="P182">
         <v>0.9850427350427351</v>
       </c>
     </row>
-    <row r="183" spans="2:13">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>47.144604039323013</v>
       </c>
@@ -7451,17 +7905,17 @@
       <c r="J183">
         <v>0.24277201500772458</v>
       </c>
-      <c r="K183">
+      <c r="N183">
         <v>0.3354700854700855</v>
       </c>
-      <c r="L183">
+      <c r="O183">
         <v>0.96794871794871784</v>
       </c>
-      <c r="M183">
+      <c r="P183">
         <v>0.95085470085470081</v>
       </c>
     </row>
-    <row r="184" spans="2:13">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>20.842774385269536</v>
       </c>
@@ -7489,17 +7943,17 @@
       <c r="J184">
         <v>0.25643292952515695</v>
       </c>
-      <c r="K184">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L184">
+      <c r="N184">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O184">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="M184">
+      <c r="P184">
         <v>0.94159544159544151</v>
       </c>
     </row>
-    <row r="185" spans="2:13">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>94.093780891308796</v>
       </c>
@@ -7527,17 +7981,17 @@
       <c r="J185">
         <v>0.27278927028870198</v>
       </c>
-      <c r="K185">
+      <c r="N185">
         <v>0.85256410256410253</v>
       </c>
-      <c r="L185">
+      <c r="O185">
         <v>2.4216524216524215E-2</v>
       </c>
-      <c r="M185">
+      <c r="P185">
         <v>0.89245014245014243</v>
       </c>
     </row>
-    <row r="186" spans="2:13">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>26.101342477335248</v>
       </c>
@@ -7565,17 +8019,17 @@
       <c r="J186">
         <v>2.9292557111274871</v>
       </c>
-      <c r="K186">
+      <c r="N186">
         <v>0.80840455840455838</v>
       </c>
-      <c r="L186">
+      <c r="O186">
         <v>0.17592592592592593</v>
       </c>
-      <c r="M186">
+      <c r="P186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:13">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>17.633356971530151</v>
       </c>
@@ -7603,17 +8057,17 @@
       <c r="J187">
         <v>0.21486419481020327</v>
       </c>
-      <c r="K187">
+      <c r="N187">
         <v>0.48361823361823364</v>
       </c>
-      <c r="L187">
+      <c r="O187">
         <v>0.86396011396011396</v>
       </c>
-      <c r="M187">
+      <c r="P187">
         <v>0.69017094017094016</v>
       </c>
     </row>
-    <row r="188" spans="2:13">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>10.251790691675001</v>
       </c>
@@ -7641,17 +8095,17 @@
       <c r="J188">
         <v>5.9533259247499602E-2</v>
       </c>
-      <c r="K188">
+      <c r="N188">
         <v>0.42236467236467234</v>
       </c>
-      <c r="L188">
+      <c r="O188">
         <v>0.75498575498575504</v>
       </c>
-      <c r="M188">
+      <c r="P188">
         <v>8.68945868945869E-2</v>
       </c>
     </row>
-    <row r="189" spans="2:13">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>63.771608493739222</v>
       </c>
@@ -7679,17 +8133,17 @@
       <c r="J189">
         <v>0.77787381158167668</v>
       </c>
-      <c r="K189">
+      <c r="N189">
         <v>0.37250712250712253</v>
       </c>
-      <c r="L189">
+      <c r="O189">
         <v>0.22934472934472935</v>
       </c>
-      <c r="M189">
+      <c r="P189">
         <v>0.28632478632478631</v>
       </c>
     </row>
-    <row r="190" spans="2:13">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>41.280868719878661</v>
       </c>
@@ -7717,17 +8171,17 @@
       <c r="J190">
         <v>2.9226361031518624</v>
       </c>
-      <c r="K190">
+      <c r="N190">
         <v>0.2606837606837607</v>
       </c>
-      <c r="L190">
+      <c r="O190">
         <v>0.81125356125356118</v>
       </c>
-      <c r="M190">
+      <c r="P190">
         <v>0.83190883190883191</v>
       </c>
     </row>
-    <row r="191" spans="2:13">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>74.14113333542555</v>
       </c>
@@ -7755,17 +8209,17 @@
       <c r="J191">
         <v>0</v>
       </c>
-      <c r="K191">
+      <c r="N191">
         <v>0.62321937321937315</v>
       </c>
-      <c r="L191">
+      <c r="O191">
         <v>0.92806267806267806</v>
       </c>
-      <c r="M191">
+      <c r="P191">
         <v>0.69871794871794868</v>
       </c>
     </row>
-    <row r="192" spans="2:13">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>39.117102772508034</v>
       </c>
@@ -7793,17 +8247,17 @@
       <c r="J192">
         <v>4.4816253361219003</v>
       </c>
-      <c r="K192">
+      <c r="N192">
         <v>0.24145299145299146</v>
       </c>
-      <c r="L192">
+      <c r="O192">
         <v>0.21937321937321938</v>
       </c>
-      <c r="M192">
+      <c r="P192">
         <v>0.50498575498575504</v>
       </c>
     </row>
-    <row r="193" spans="2:13">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>38.630194922177488</v>
       </c>
@@ -7831,17 +8285,17 @@
       <c r="J193">
         <v>3.8680659670164914</v>
       </c>
-      <c r="K193">
+      <c r="N193">
         <v>0.23219373219373221</v>
       </c>
-      <c r="L193">
+      <c r="O193">
         <v>0.99715099715099709</v>
       </c>
-      <c r="M193">
+      <c r="P193">
         <v>0.40028490028490027</v>
       </c>
     </row>
-    <row r="194" spans="2:13">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>73.507891375671846</v>
       </c>
@@ -7869,17 +8323,17 @@
       <c r="J194">
         <v>0.93977364591754231</v>
       </c>
-      <c r="K194">
+      <c r="N194">
         <v>0.20370370370370372</v>
       </c>
-      <c r="L194">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M194">
+      <c r="O194">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P194">
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:13">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>50.097369777738628</v>
       </c>
@@ -7907,17 +8361,17 @@
       <c r="J195">
         <v>14.305934688100294</v>
       </c>
-      <c r="K195">
+      <c r="N195">
         <v>0.22364672364672367</v>
       </c>
-      <c r="L195">
+      <c r="O195">
         <v>0.93233618233618232</v>
       </c>
-      <c r="M195">
+      <c r="P195">
         <v>0.81837606837606836</v>
       </c>
     </row>
-    <row r="196" spans="2:13">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>14.118016906886309</v>
       </c>
@@ -7945,17 +8399,17 @@
       <c r="J196">
         <v>0</v>
       </c>
-      <c r="K196">
+      <c r="N196">
         <v>0.67236467236467234</v>
       </c>
-      <c r="L196">
+      <c r="O196">
         <v>0.27635327635327633</v>
       </c>
-      <c r="M196">
+      <c r="P196">
         <v>0.59188034188034189</v>
       </c>
     </row>
-    <row r="197" spans="2:13">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>56.766101551313149</v>
       </c>
@@ -7983,17 +8437,17 @@
       <c r="J197">
         <v>4.1808609476618148</v>
       </c>
-      <c r="K197">
+      <c r="N197">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L197">
+      <c r="O197">
         <v>1</v>
       </c>
-      <c r="M197">
+      <c r="P197">
         <v>0.51139601139601143</v>
       </c>
     </row>
-    <row r="198" spans="2:13">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>25.279830025675462</v>
       </c>
@@ -8021,17 +8475,17 @@
       <c r="J198">
         <v>0</v>
       </c>
-      <c r="K198">
+      <c r="N198">
         <v>7.8347578347578353E-3</v>
       </c>
-      <c r="L198">
+      <c r="O198">
         <v>0.5641025641025641</v>
       </c>
-      <c r="M198">
+      <c r="P198">
         <v>0.74786324786324787</v>
       </c>
     </row>
-    <row r="199" spans="2:13">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>24.862814212571756</v>
       </c>
@@ -8059,17 +8513,17 @@
       <c r="J199">
         <v>0</v>
       </c>
-      <c r="K199">
+      <c r="N199">
         <v>0.15313390313390313</v>
       </c>
-      <c r="L199">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M199">
+      <c r="O199">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P199">
         <v>0.32264957264957261</v>
       </c>
     </row>
-    <row r="200" spans="2:13">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>11.545647975466609</v>
       </c>
@@ -8097,17 +8551,17 @@
       <c r="J200">
         <v>0</v>
       </c>
-      <c r="K200">
+      <c r="N200">
         <v>0.96866096866096862</v>
       </c>
-      <c r="L200">
+      <c r="O200">
         <v>0.97792022792022792</v>
       </c>
-      <c r="M200">
+      <c r="P200">
         <v>0.65811965811965811</v>
       </c>
     </row>
-    <row r="201" spans="2:13">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>63.589981770090681</v>
       </c>
@@ -8135,17 +8589,17 @@
       <c r="J201">
         <v>0</v>
       </c>
-      <c r="K201">
+      <c r="N201">
         <v>0.86039886039886038</v>
       </c>
-      <c r="L201">
+      <c r="O201">
         <v>0.70512820512820507</v>
       </c>
-      <c r="M201">
+      <c r="P201">
         <v>0.61680911680911676</v>
       </c>
     </row>
-    <row r="202" spans="2:13">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>68.298977993740223</v>
       </c>
@@ -8173,17 +8627,17 @@
       <c r="J202">
         <v>0.24677817384151354</v>
       </c>
-      <c r="K202">
+      <c r="N202">
         <v>2.8490028490028491E-3</v>
       </c>
-      <c r="L202">
+      <c r="O202">
         <v>0.55626780626780636</v>
       </c>
-      <c r="M202">
+      <c r="P202">
         <v>0.82193732193732194</v>
       </c>
     </row>
-    <row r="203" spans="2:13">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>27.594830709062958</v>
       </c>
@@ -8211,17 +8665,17 @@
       <c r="J203">
         <v>0.32667179093005383</v>
       </c>
-      <c r="K203">
+      <c r="N203">
         <v>0.88888888888888884</v>
       </c>
-      <c r="L203">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M203">
+      <c r="O203">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P203">
         <v>0.82834757834757833</v>
       </c>
     </row>
-    <row r="204" spans="2:13">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>30.55549637977618</v>
       </c>
@@ -8249,17 +8703,17 @@
       <c r="J204">
         <v>13.421052631578947</v>
       </c>
-      <c r="K204">
+      <c r="N204">
         <v>0.85683760683760679</v>
       </c>
-      <c r="L204">
+      <c r="O204">
         <v>0.34829059829059827</v>
       </c>
-      <c r="M204">
+      <c r="P204">
         <v>0.87820512820512819</v>
       </c>
     </row>
-    <row r="205" spans="2:13">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>60.223533990755143</v>
       </c>
@@ -8287,17 +8741,17 @@
       <c r="J205">
         <v>8.5881140501545855E-2</v>
       </c>
-      <c r="K205">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="L205">
+      <c r="N205">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="O205">
         <v>1</v>
       </c>
-      <c r="M205">
+      <c r="P205">
         <v>0.72863247863247871</v>
       </c>
     </row>
-    <row r="206" spans="2:13">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>37.32782518100737</v>
       </c>
@@ -8325,17 +8779,17 @@
       <c r="J206">
         <v>0.12916559028674762</v>
       </c>
-      <c r="K206">
+      <c r="N206">
         <v>0.95299145299145294</v>
       </c>
-      <c r="L206">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M206">
+      <c r="O206">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P206">
         <v>0.2378917378917379</v>
       </c>
     </row>
-    <row r="207" spans="2:13">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>13.499508447931271</v>
       </c>
@@ -8363,17 +8817,17 @@
       <c r="J207">
         <v>35.910752067705324</v>
       </c>
-      <c r="K207">
+      <c r="N207">
         <v>0.92948717948717952</v>
       </c>
-      <c r="L207">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M207">
+      <c r="O207">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P207">
         <v>2.1367521367521368E-2</v>
       </c>
     </row>
-    <row r="208" spans="2:13">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>16.96616343590798</v>
       </c>
@@ -8401,17 +8855,17 @@
       <c r="J208">
         <v>3.5325131810193326</v>
       </c>
-      <c r="K208">
+      <c r="N208">
         <v>0.17378917378917377</v>
       </c>
-      <c r="L208">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M208">
+      <c r="O208">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P208">
         <v>0.6951566951566952</v>
       </c>
     </row>
-    <row r="209" spans="2:13">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>26.572207391455716</v>
       </c>
@@ -8439,17 +8893,17 @@
       <c r="J209">
         <v>6.5703022339027601</v>
       </c>
-      <c r="K209">
+      <c r="N209">
         <v>0.83119658119658124</v>
       </c>
-      <c r="L209">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M209">
+      <c r="O209">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:13">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>28.811216114861832</v>
       </c>
@@ -8477,17 +8931,17 @@
       <c r="J210">
         <v>23.762488646684833</v>
       </c>
-      <c r="K210">
+      <c r="N210">
         <v>6.623931623931624E-2</v>
       </c>
-      <c r="L210">
+      <c r="O210">
         <v>0.39886039886039887</v>
       </c>
-      <c r="M210">
+      <c r="P210">
         <v>3.5612535612535613E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:13">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>4.4221582504049115</v>
       </c>
@@ -8515,17 +8969,17 @@
       <c r="J211">
         <v>35.074913561275451</v>
       </c>
-      <c r="K211">
+      <c r="N211">
         <v>0.30056980056980059</v>
       </c>
-      <c r="L211">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M211">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="2:13">
+      <c r="O211">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P211">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>22.686114911172751</v>
       </c>
@@ -8553,17 +9007,17 @@
       <c r="J212">
         <v>3.2961190855927698</v>
       </c>
-      <c r="K212">
+      <c r="N212">
         <v>0.17663817663817663</v>
       </c>
-      <c r="L212">
+      <c r="O212">
         <v>1</v>
       </c>
-      <c r="M212">
+      <c r="P212">
         <v>0.16951566951566951</v>
       </c>
     </row>
-    <row r="213" spans="2:13">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>60.95802874970434</v>
       </c>
@@ -8591,17 +9045,17 @@
       <c r="J213">
         <v>0</v>
       </c>
-      <c r="K213">
+      <c r="N213">
         <v>0.13675213675213674</v>
       </c>
-      <c r="L213">
+      <c r="O213">
         <v>1</v>
       </c>
-      <c r="M213">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="2:13">
+      <c r="P213">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>30.309874450463422</v>
       </c>
@@ -8629,17 +9083,17 @@
       <c r="J214">
         <v>4.9311789347695996</v>
       </c>
-      <c r="K214">
+      <c r="N214">
         <v>0.45227920227920226</v>
       </c>
-      <c r="L214">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M214">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="2:13">
+      <c r="O214">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P214">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>58.969984426003059</v>
       </c>
@@ -8667,17 +9121,17 @@
       <c r="J215">
         <v>14.242878560719641</v>
       </c>
-      <c r="K215">
+      <c r="N215">
         <v>0.71509971509971515</v>
       </c>
-      <c r="L215">
+      <c r="O215">
         <v>0.82478632478632474</v>
       </c>
-      <c r="M215">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="2:13">
+      <c r="P215">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>28.948199756006144</v>
       </c>
@@ -8705,17 +9159,17 @@
       <c r="J216">
         <v>0</v>
       </c>
-      <c r="K216">
+      <c r="N216">
         <v>0.74715099715099709</v>
       </c>
-      <c r="L216">
+      <c r="O216">
         <v>0.99928774928774922</v>
       </c>
-      <c r="M216">
+      <c r="P216">
         <v>2.8490028490028491E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:13">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>23.103639244682309</v>
       </c>
@@ -8743,17 +9197,17 @@
       <c r="J217">
         <v>0</v>
       </c>
-      <c r="K217">
+      <c r="N217">
         <v>0.4878917378917379</v>
       </c>
-      <c r="L217">
+      <c r="O217">
         <v>1</v>
       </c>
-      <c r="M217">
+      <c r="P217">
         <v>2.8490028490028491E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:13">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>64.078514587723333</v>
       </c>
@@ -8781,17 +9235,17 @@
       <c r="J218">
         <v>17.086662569145666</v>
       </c>
-      <c r="K218">
+      <c r="N218">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L218">
+      <c r="O218">
         <v>0.31481481481481483</v>
       </c>
-      <c r="M218">
+      <c r="P218">
         <v>2.9202279202279201E-2</v>
       </c>
     </row>
-    <row r="219" spans="2:13">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>29.518525304355588</v>
       </c>
@@ -8819,17 +9273,17 @@
       <c r="J219">
         <v>9.003601440576231E-2</v>
       </c>
-      <c r="K219">
+      <c r="N219">
         <v>0.78846153846153855</v>
       </c>
-      <c r="L219">
+      <c r="O219">
         <v>1</v>
       </c>
-      <c r="M219">
+      <c r="P219">
         <v>0.26566951566951569</v>
       </c>
     </row>
-    <row r="220" spans="2:13">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>26.384064530971376</v>
       </c>
@@ -8857,17 +9311,17 @@
       <c r="J220">
         <v>0</v>
       </c>
-      <c r="K220">
+      <c r="N220">
         <v>0.96866096866096862</v>
       </c>
-      <c r="L220">
+      <c r="O220">
         <v>0.99928774928774922</v>
       </c>
-      <c r="M220">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="2:13">
+      <c r="P220">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>28.62506156897857</v>
       </c>
@@ -8895,17 +9349,17 @@
       <c r="J221">
         <v>31.781557743957027</v>
       </c>
-      <c r="K221">
+      <c r="N221">
         <v>0.58618233618233617</v>
       </c>
-      <c r="L221">
+      <c r="O221">
         <v>0.51068376068376065</v>
       </c>
-      <c r="M221">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="2:13">
+      <c r="P221">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>63.371653814342594</v>
       </c>
@@ -8933,17 +9387,17 @@
       <c r="J222">
         <v>27.427564604541892</v>
       </c>
-      <c r="K222">
+      <c r="N222">
         <v>0.76923076923076927</v>
       </c>
-      <c r="L222">
+      <c r="O222">
         <v>0.99928774928774922</v>
       </c>
-      <c r="M222">
+      <c r="P222">
         <v>7.3361823361823369E-2</v>
       </c>
     </row>
-    <row r="223" spans="2:13">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>32.035027973578636</v>
       </c>
@@ -8971,17 +9425,17 @@
       <c r="J223">
         <v>0.57399550786124276</v>
       </c>
-      <c r="K223">
+      <c r="N223">
         <v>0.78846153846153855</v>
       </c>
-      <c r="L223">
+      <c r="O223">
         <v>0.12108262108262108</v>
       </c>
-      <c r="M223">
+      <c r="P223">
         <v>0.4358974358974359</v>
       </c>
     </row>
-    <row r="224" spans="2:13">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>19.145329129100013</v>
       </c>
@@ -9009,17 +9463,17 @@
       <c r="J224">
         <v>0</v>
       </c>
-      <c r="K224">
+      <c r="N224">
         <v>0.22008547008547008</v>
       </c>
-      <c r="L224">
+      <c r="O224">
         <v>1.0683760683760684E-2</v>
       </c>
-      <c r="M224">
+      <c r="P224">
         <v>0.10327635327635327</v>
       </c>
     </row>
-    <row r="225" spans="2:13">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>11.237780703330566</v>
       </c>
@@ -9047,17 +9501,17 @@
       <c r="J225">
         <v>31.79765130984643</v>
       </c>
-      <c r="K225">
+      <c r="N225">
         <v>0.18518518518518517</v>
       </c>
-      <c r="L225">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P225">
         <v>0.11182336182336182</v>
       </c>
     </row>
-    <row r="226" spans="2:13">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>22.845889710246023</v>
       </c>
@@ -9085,17 +9539,17 @@
       <c r="J226">
         <v>24.926108374384238</v>
       </c>
-      <c r="K226">
+      <c r="N226">
         <v>0.37108262108262108</v>
       </c>
-      <c r="L226">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M226">
+      <c r="O226">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P226">
         <v>0.16025641025641024</v>
       </c>
     </row>
-    <row r="227" spans="2:13">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>32.508091812869964</v>
       </c>
@@ -9123,17 +9577,17 @@
       <c r="J227">
         <v>43.201809499874336</v>
       </c>
-      <c r="K227">
+      <c r="N227">
         <v>0.66880341880341876</v>
       </c>
-      <c r="L227">
+      <c r="O227">
         <v>0.9665242165242165</v>
       </c>
-      <c r="M227">
+      <c r="P227">
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="228" spans="2:13">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>46.206872326877047</v>
       </c>
@@ -9161,17 +9615,17 @@
       <c r="J228">
         <v>5.2652362774779513E-2</v>
       </c>
-      <c r="K228">
+      <c r="N228">
         <v>0.40384615384615385</v>
       </c>
-      <c r="L228">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M228">
+      <c r="O228">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P228">
         <v>0.88960113960113962</v>
       </c>
     </row>
-    <row r="229" spans="2:13">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>21.77833096934781</v>
       </c>
@@ -9199,17 +9653,17 @@
       <c r="J229">
         <v>22.287735849056602</v>
       </c>
-      <c r="K229">
+      <c r="N229">
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="L229">
+      <c r="O229">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="M229">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="2:13">
+      <c r="P229">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>40.711622280056808</v>
       </c>
@@ -9237,17 +9691,17 @@
       <c r="J230">
         <v>0.25515411308430291</v>
       </c>
-      <c r="K230">
+      <c r="N230">
         <v>0.6616809116809117</v>
       </c>
-      <c r="L230">
+      <c r="O230">
         <v>1</v>
       </c>
-      <c r="M230">
+      <c r="P230">
         <v>0.12250712250712251</v>
       </c>
     </row>
-    <row r="231" spans="2:13">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>44.23335134108946</v>
       </c>
@@ -9275,17 +9729,17 @@
       <c r="J231">
         <v>5.4832843754371234</v>
       </c>
-      <c r="K231">
+      <c r="N231">
         <v>0.77065527065527062</v>
       </c>
-      <c r="L231">
+      <c r="O231">
         <v>1</v>
       </c>
-      <c r="M231">
+      <c r="P231">
         <v>0.96225071225071224</v>
       </c>
     </row>
-    <row r="232" spans="2:13">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>47.9577698444837</v>
       </c>
@@ -9313,17 +9767,17 @@
       <c r="J232">
         <v>16.763969974979148</v>
       </c>
-      <c r="K232">
+      <c r="N232">
         <v>0.43945868945868949</v>
       </c>
-      <c r="L232">
+      <c r="O232">
         <v>1</v>
       </c>
-      <c r="M232">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="2:13">
+      <c r="P232">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>42.239535197484194</v>
       </c>
@@ -9351,17 +9805,17 @@
       <c r="J233">
         <v>5.5147717099373317</v>
       </c>
-      <c r="K233">
+      <c r="N233">
         <v>0.46438746438746437</v>
       </c>
-      <c r="L233">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M233">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="2:13">
+      <c r="O233">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P233">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>6.6962389273148197</v>
       </c>
@@ -9389,17 +9843,17 @@
       <c r="J234">
         <v>18.653045781309118</v>
       </c>
-      <c r="K234">
+      <c r="N234">
         <v>0.4024216524216524</v>
       </c>
-      <c r="L234">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M234">
+      <c r="O234">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P234">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="235" spans="2:13">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>44.092488485474547</v>
       </c>
@@ -9427,17 +9881,17 @@
       <c r="J235">
         <v>0.50284948038887023</v>
       </c>
-      <c r="K235">
+      <c r="N235">
         <v>0.10541310541310542</v>
       </c>
-      <c r="L235">
+      <c r="O235">
         <v>0.96866096866096862</v>
       </c>
-      <c r="M235">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="236" spans="2:13">
+      <c r="P235">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>20.494592006616127</v>
       </c>
@@ -9465,17 +9919,17 @@
       <c r="J236">
         <v>0.3277557357253752</v>
       </c>
-      <c r="K236">
+      <c r="N236">
         <v>0.98860398860398857</v>
       </c>
-      <c r="L236">
+      <c r="O236">
         <v>1</v>
       </c>
-      <c r="M236">
+      <c r="P236">
         <v>3.2763532763532763E-2</v>
       </c>
     </row>
-    <row r="237" spans="2:13">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>6.440954591129878</v>
       </c>
@@ -9503,17 +9957,17 @@
       <c r="J237">
         <v>1.4263821761169397</v>
       </c>
-      <c r="K237">
+      <c r="N237">
         <v>0.76068376068376065</v>
       </c>
-      <c r="L237">
+      <c r="O237">
         <v>3.5612535612535613E-3</v>
       </c>
-      <c r="M237">
+      <c r="P237">
         <v>0.38247863247863245</v>
       </c>
     </row>
-    <row r="238" spans="2:13">
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>6.3746060218585816</v>
       </c>
@@ -9541,17 +9995,17 @@
       <c r="J238">
         <v>3.4538451981612623</v>
       </c>
-      <c r="K238">
+      <c r="N238">
         <v>0.9757834757834758</v>
       </c>
-      <c r="L238">
+      <c r="O238">
         <v>1</v>
       </c>
-      <c r="M238">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="2:13">
+      <c r="P238">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>43.603415195536407</v>
       </c>
@@ -9579,17 +10033,17 @@
       <c r="J239">
         <v>5.4364797728885739</v>
       </c>
-      <c r="K239">
+      <c r="N239">
         <v>0.41096866096866103</v>
       </c>
-      <c r="L239">
+      <c r="O239">
         <v>1</v>
       </c>
-      <c r="M239">
+      <c r="P239">
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="2:13">
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>22.885945624496014</v>
       </c>
@@ -9617,17 +10071,17 @@
       <c r="J240">
         <v>6.1661602312310082</v>
       </c>
-      <c r="K240">
+      <c r="N240">
         <v>0.34330484330484334</v>
       </c>
-      <c r="L240">
+      <c r="O240">
         <v>0.69088319088319095</v>
       </c>
-      <c r="M240">
+      <c r="P240">
         <v>2.9202279202279205E-2</v>
       </c>
     </row>
-    <row r="241" spans="2:13">
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>44.391454694912191</v>
       </c>
@@ -9655,17 +10109,17 @@
       <c r="J241">
         <v>5.7417312520467192</v>
       </c>
-      <c r="K241">
+      <c r="N241">
         <v>0.30413105413105412</v>
       </c>
-      <c r="L241">
+      <c r="O241">
         <v>1</v>
       </c>
-      <c r="M241">
+      <c r="P241">
         <v>0.79843304843304841</v>
       </c>
     </row>
-    <row r="242" spans="2:13">
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>22.045857480153895</v>
       </c>
@@ -9693,17 +10147,17 @@
       <c r="J242">
         <v>0.39628684653384721</v>
       </c>
-      <c r="K242">
+      <c r="N242">
         <v>0.19301994301994302</v>
       </c>
-      <c r="L242">
+      <c r="O242">
         <v>0.93376068376068377</v>
       </c>
-      <c r="M242">
+      <c r="P242">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:13">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>44.683351416386088</v>
       </c>
@@ -9731,17 +10185,17 @@
       <c r="J243">
         <v>8.4389671361502341</v>
       </c>
-      <c r="K243">
+      <c r="N243">
         <v>0.15455840455840458</v>
       </c>
-      <c r="L243">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M243">
+      <c r="O243">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P243">
         <v>0.59330484330484334</v>
       </c>
     </row>
-    <row r="244" spans="2:13">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>24.258369147517044</v>
       </c>
@@ -9769,17 +10223,17 @@
       <c r="J244">
         <v>11.958456973293769</v>
       </c>
-      <c r="K244">
+      <c r="N244">
         <v>0.19373219373219375</v>
       </c>
-      <c r="L244">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M244">
+      <c r="O244">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P244">
         <v>0.20441595441595442</v>
       </c>
     </row>
-    <row r="245" spans="2:13">
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>47.846245207308463</v>
       </c>
@@ -9807,17 +10261,17 @@
       <c r="J245">
         <v>5.693757201925032</v>
       </c>
-      <c r="K245">
+      <c r="N245">
         <v>0.49430199430199429</v>
       </c>
-      <c r="L245">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M245">
+      <c r="O245">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P245">
         <v>4.9857549857549865E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:13">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>45.578669761956682</v>
       </c>
@@ -9845,17 +10299,17 @@
       <c r="J246">
         <v>11.744749596122778</v>
       </c>
-      <c r="K246">
+      <c r="N246">
         <v>0.52777777777777779</v>
       </c>
-      <c r="L246">
+      <c r="O246">
         <v>0.97222222222222232</v>
       </c>
-      <c r="M246">
+      <c r="P246">
         <v>3.5612535612535613E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:13">
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>47.929859920406166</v>
       </c>
@@ -9883,17 +10337,17 @@
       <c r="J247">
         <v>0.33003300330033003</v>
       </c>
-      <c r="K247">
+      <c r="N247">
         <v>0.4786324786324786</v>
       </c>
-      <c r="L247">
+      <c r="O247">
         <v>0.42592592592592593</v>
       </c>
-      <c r="M247">
+      <c r="P247">
         <v>0.4878917378917379</v>
       </c>
     </row>
-    <row r="248" spans="2:13">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>28.106133445863385</v>
       </c>
@@ -9921,17 +10375,17 @@
       <c r="J248">
         <v>2.9921456177533972</v>
       </c>
-      <c r="K248">
+      <c r="N248">
         <v>0.3995726495726496</v>
       </c>
-      <c r="L248">
+      <c r="O248">
         <v>0.67307692307692313</v>
       </c>
-      <c r="M248">
+      <c r="P248">
         <v>0.85754985754985746</v>
       </c>
     </row>
-    <row r="249" spans="2:13">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>50.203646330934092</v>
       </c>
@@ -9959,17 +10413,17 @@
       <c r="J249">
         <v>4.5444033302497688</v>
       </c>
-      <c r="K249">
+      <c r="N249">
         <v>0.75071225071225078</v>
       </c>
-      <c r="L249">
+      <c r="O249">
         <v>0.9544159544159545</v>
       </c>
-      <c r="M249">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="2:13">
+      <c r="P249">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>45.835562650169607</v>
       </c>
@@ -9988,14 +10442,14 @@
       <c r="J250">
         <v>1.9805795314426635</v>
       </c>
-      <c r="L250">
+      <c r="O250">
         <v>0.46153846153846156</v>
       </c>
-      <c r="M250">
+      <c r="P250">
         <v>0.77279202279202275</v>
       </c>
     </row>
-    <row r="251" spans="2:13">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>22.436510360257845</v>
       </c>
@@ -10014,14 +10468,14 @@
       <c r="J251">
         <v>12.944563097780668</v>
       </c>
-      <c r="L251">
+      <c r="O251">
         <v>0.16809116809116809</v>
       </c>
-      <c r="M251">
+      <c r="P251">
         <v>0.36039886039886038</v>
       </c>
     </row>
-    <row r="252" spans="2:13">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>23.711756267058213</v>
       </c>
@@ -10040,14 +10494,14 @@
       <c r="J252">
         <v>9.2864458859679075</v>
       </c>
-      <c r="L252">
+      <c r="O252">
         <v>0.79629629629629628</v>
       </c>
-      <c r="M252">
+      <c r="P252">
         <v>0.31837606837606836</v>
       </c>
     </row>
-    <row r="253" spans="2:13">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>23.27670761446991</v>
       </c>
@@ -10066,14 +10520,14 @@
       <c r="J253">
         <v>3.7215099715099718</v>
       </c>
-      <c r="L253">
+      <c r="O253">
         <v>5.6980056980056983E-3</v>
       </c>
-      <c r="M253">
+      <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:13">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>25.44915196801735</v>
       </c>
@@ -10092,14 +10546,14 @@
       <c r="J254">
         <v>1.6286960736791083</v>
       </c>
-      <c r="L254">
+      <c r="O254">
         <v>0.95868945868945876</v>
       </c>
-      <c r="M254">
+      <c r="P254">
         <v>0.93447293447293445</v>
       </c>
     </row>
-    <row r="255" spans="2:13">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>45.980383162394752</v>
       </c>
@@ -10118,14 +10572,14 @@
       <c r="J255">
         <v>3.3060991829754895</v>
       </c>
-      <c r="L255">
+      <c r="O255">
         <v>1</v>
       </c>
-      <c r="M255">
+      <c r="P255">
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:13">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>35.27773994483465</v>
       </c>
@@ -10144,14 +10598,14 @@
       <c r="J256">
         <v>1.534056044180814E-2</v>
       </c>
-      <c r="L256">
+      <c r="O256">
         <v>1</v>
       </c>
-      <c r="M256">
+      <c r="P256">
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="257" spans="2:13">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>38.041350291083653</v>
       </c>
@@ -10170,14 +10624,14 @@
       <c r="J257">
         <v>0.12660693416439425</v>
       </c>
-      <c r="L257">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M257">
+      <c r="O257">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P257">
         <v>0.99002849002849003</v>
       </c>
     </row>
-    <row r="258" spans="2:13">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>49.175808859982126</v>
       </c>
@@ -10196,14 +10650,14 @@
       <c r="J258">
         <v>6.7231247839612855</v>
       </c>
-      <c r="L258">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M258">
+      <c r="O258">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P258">
         <v>0.92806267806267806</v>
       </c>
     </row>
-    <row r="259" spans="2:13">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>27.572188344976784</v>
       </c>
@@ -10222,14 +10676,14 @@
       <c r="J259">
         <v>5.8741398224793056</v>
       </c>
-      <c r="L259">
+      <c r="O259">
         <v>0.93162393162393164</v>
       </c>
-      <c r="M259">
+      <c r="P259">
         <v>0.88532763532763536</v>
       </c>
     </row>
-    <row r="260" spans="2:13">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>41.392451860692589</v>
       </c>
@@ -10248,14 +10702,14 @@
       <c r="J260">
         <v>4.7302431610942248</v>
       </c>
-      <c r="L260">
+      <c r="O260">
         <v>5.2706552706552709E-2</v>
       </c>
-      <c r="M260">
+      <c r="P260">
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="261" spans="2:13">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>36.388218442601271</v>
       </c>
@@ -10274,14 +10728,14 @@
       <c r="J261">
         <v>0.55842640440073343</v>
       </c>
-      <c r="L261">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M261">
+      <c r="O261">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:13">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>40.689264900169526</v>
       </c>
@@ -10300,14 +10754,14 @@
       <c r="J262">
         <v>4.3941557728221468E-2</v>
       </c>
-      <c r="L262">
+      <c r="O262">
         <v>0.2727920227920228</v>
       </c>
-      <c r="M262">
+      <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:13">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>54.152223018145079</v>
       </c>
@@ -10326,14 +10780,14 @@
       <c r="J263">
         <v>11.966276856132717</v>
       </c>
-      <c r="L263">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M263">
+      <c r="O263">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P263">
         <v>0.9850427350427351</v>
       </c>
     </row>
-    <row r="264" spans="2:13">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>42.967149738217202</v>
       </c>
@@ -10352,14 +10806,14 @@
       <c r="J264">
         <v>0.59114255257292381</v>
       </c>
-      <c r="L264">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M264">
+      <c r="O264">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:13">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>67.081202058120908</v>
       </c>
@@ -10378,14 +10832,14 @@
       <c r="J265">
         <v>8.3464815399179546</v>
       </c>
-      <c r="L265">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M265">
+      <c r="O265">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P265">
         <v>0.71153846153846145</v>
       </c>
     </row>
-    <row r="266" spans="2:13">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>49.184934771939872</v>
       </c>
@@ -10404,14 +10858,14 @@
       <c r="J266">
         <v>8.1911593640946112</v>
       </c>
-      <c r="L266">
+      <c r="O266">
         <v>1</v>
       </c>
-      <c r="M266">
+      <c r="P266">
         <v>0.39316239316239315</v>
       </c>
     </row>
-    <row r="267" spans="2:13">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D267">
         <v>30.390928197584376</v>
       </c>
@@ -10421,14 +10875,14 @@
       <c r="J267">
         <v>0.73775989268947018</v>
       </c>
-      <c r="L267">
+      <c r="O267">
         <v>0.67521367521367526</v>
       </c>
-      <c r="M267">
+      <c r="P267">
         <v>0.91025641025641024</v>
       </c>
     </row>
-    <row r="268" spans="2:13">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D268">
         <v>30.010447093389267</v>
       </c>
@@ -10438,14 +10892,14 @@
       <c r="J268">
         <v>2.1583276733831407</v>
       </c>
-      <c r="L268">
+      <c r="O268">
         <v>1</v>
       </c>
-      <c r="M268">
+      <c r="P268">
         <v>0.73575498575498566</v>
       </c>
     </row>
-    <row r="269" spans="2:13">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D269">
         <v>37.504565984946517</v>
       </c>
@@ -10455,14 +10909,14 @@
       <c r="J269">
         <v>1.1533816425120773</v>
       </c>
-      <c r="L269">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M269">
+      <c r="O269">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P269">
         <v>0.10683760683760685</v>
       </c>
     </row>
-    <row r="270" spans="2:13">
+    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D270">
         <v>71.72038646524976</v>
       </c>
@@ -10472,14 +10926,14 @@
       <c r="J270">
         <v>5.8423120308063323</v>
       </c>
-      <c r="L270">
-        <v>1.4245014245014246E-3</v>
-      </c>
-      <c r="M270">
+      <c r="O270">
+        <v>1.4245014245014246E-3</v>
+      </c>
+      <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:13">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D271">
         <v>43.820600980051466</v>
       </c>
@@ -10489,14 +10943,14 @@
       <c r="J271">
         <v>2.0881079704609116</v>
       </c>
-      <c r="L271">
+      <c r="O271">
         <v>0.99643874643874653</v>
       </c>
-      <c r="M271">
+      <c r="P271">
         <v>1.7094017094017096E-2</v>
       </c>
     </row>
-    <row r="272" spans="2:13">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D272">
         <v>34.187768335276978</v>
       </c>
@@ -10506,14 +10960,14 @@
       <c r="J272">
         <v>0.13871889024887801</v>
       </c>
-      <c r="L272">
+      <c r="O272">
         <v>0.36680911680911682</v>
       </c>
-      <c r="M272">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="273" spans="4:12">
+      <c r="P272">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>21.483476454505752</v>
       </c>
@@ -10523,11 +10977,11 @@
       <c r="J273">
         <v>6.505648617062719</v>
       </c>
-      <c r="L273">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="274" spans="4:12">
+      <c r="O273">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D274">
         <v>29.625073010636992</v>
       </c>
@@ -10537,11 +10991,11 @@
       <c r="J274">
         <v>3.8834951456310676</v>
       </c>
-      <c r="L274">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="275" spans="4:12">
+      <c r="O274">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D275">
         <v>45.491108951307787</v>
       </c>
@@ -10551,11 +11005,11 @@
       <c r="J275">
         <v>7.4988972209969127</v>
       </c>
-      <c r="L275">
+      <c r="O275">
         <v>4.344729344729345E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:12">
+    <row r="276" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D276">
         <v>51.089705950608568</v>
       </c>
@@ -10565,11 +11019,11 @@
       <c r="J276">
         <v>7.796543597800472</v>
       </c>
-      <c r="L276">
+      <c r="O276">
         <v>0.3141025641025641</v>
       </c>
     </row>
-    <row r="277" spans="4:12">
+    <row r="277" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D277">
         <v>43.698139904389429</v>
       </c>
@@ -10579,11 +11033,11 @@
       <c r="J277">
         <v>4.6681922196796339</v>
       </c>
-      <c r="L277">
+      <c r="O277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="4:12">
+    <row r="278" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D278">
         <v>33.85570172389766</v>
       </c>
@@ -10593,11 +11047,11 @@
       <c r="J278">
         <v>0.12658227848101267</v>
       </c>
-      <c r="L278">
+      <c r="O278">
         <v>0.59615384615384615</v>
       </c>
     </row>
-    <row r="279" spans="4:12">
+    <row r="279" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D279">
         <v>52.189207037167812</v>
       </c>
@@ -10607,11 +11061,11 @@
       <c r="J279">
         <v>1.220780642689002</v>
       </c>
-      <c r="L279">
+      <c r="O279">
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="280" spans="4:12">
+    <row r="280" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D280">
         <v>5.8272150451024016</v>
       </c>
@@ -10621,11 +11075,11 @@
       <c r="J280">
         <v>1.029252437703142</v>
       </c>
-      <c r="L280">
+      <c r="O280">
         <v>5.2706552706552709E-2</v>
       </c>
     </row>
-    <row r="281" spans="4:12">
+    <row r="281" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D281">
         <v>39.256363109909785</v>
       </c>
@@ -10635,11 +11089,11 @@
       <c r="J281">
         <v>2.2113219684786105</v>
       </c>
-      <c r="L281">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="282" spans="4:12">
+      <c r="O281">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D282">
         <v>61.681355352817405</v>
       </c>
@@ -10649,11 +11103,11 @@
       <c r="J282">
         <v>1.3561924257932445</v>
       </c>
-      <c r="L282">
+      <c r="O282">
         <v>0.32977207977207978</v>
       </c>
     </row>
-    <row r="283" spans="4:12">
+    <row r="283" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>42.848654941614299</v>
       </c>
@@ -10663,11 +11117,11 @@
       <c r="J283">
         <v>0.25047885663768971</v>
       </c>
-      <c r="L283">
+      <c r="O283">
         <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="284" spans="4:12">
+    <row r="284" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D284">
         <v>37.23973814871708</v>
       </c>
@@ -10677,11 +11131,11 @@
       <c r="J284">
         <v>0</v>
       </c>
-      <c r="L284">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="285" spans="4:12">
+      <c r="O284">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D285">
         <v>6.4931681487453803</v>
       </c>
@@ -10691,11 +11145,11 @@
       <c r="J285">
         <v>3.9588688946015425</v>
       </c>
-      <c r="L285">
+      <c r="O285">
         <v>0.91524216524216528</v>
       </c>
     </row>
-    <row r="286" spans="4:12">
+    <row r="286" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D286">
         <v>64.878267250754604</v>
       </c>
@@ -10705,11 +11159,11 @@
       <c r="J286">
         <v>0.48368838118760932</v>
       </c>
-      <c r="L286">
+      <c r="O286">
         <v>0.69088319088319095</v>
       </c>
     </row>
-    <row r="287" spans="4:12">
+    <row r="287" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D287">
         <v>5.8968411925749358</v>
       </c>
@@ -10719,11 +11173,11 @@
       <c r="J287">
         <v>1.0756972111553786</v>
       </c>
-      <c r="L287">
+      <c r="O287">
         <v>9.1880341880341887E-2</v>
       </c>
     </row>
-    <row r="288" spans="4:12">
+    <row r="288" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D288">
         <v>39.506486651131517</v>
       </c>
@@ -10733,11 +11187,11 @@
       <c r="J288">
         <v>2.3251665080875354</v>
       </c>
-      <c r="L288">
+      <c r="O288">
         <v>0.99216524216524216</v>
       </c>
     </row>
-    <row r="289" spans="4:12">
+    <row r="289" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D289">
         <v>32.91424107887444</v>
       </c>
@@ -10747,11 +11201,11 @@
       <c r="J289">
         <v>2.1413276231263382E-2</v>
       </c>
-      <c r="L289">
+      <c r="O289">
         <v>0.95370370370370372</v>
       </c>
     </row>
-    <row r="290" spans="4:12">
+    <row r="290" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D290">
         <v>39.903524962504093</v>
       </c>
@@ -10761,11 +11215,11 @@
       <c r="J290">
         <v>0.48277892257874599</v>
       </c>
-      <c r="L290">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="291" spans="4:12">
+      <c r="O290">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D291">
         <v>37.733861287508802</v>
       </c>
@@ -10775,11 +11229,11 @@
       <c r="J291">
         <v>0.81061820773205062</v>
       </c>
-      <c r="L291">
+      <c r="O291">
         <v>0.98290598290598297</v>
       </c>
     </row>
-    <row r="292" spans="4:12">
+    <row r="292" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D292">
         <v>5.6503314470249686</v>
       </c>
@@ -10789,11 +11243,11 @@
       <c r="J292">
         <v>3.0933967876264128</v>
       </c>
-      <c r="L292">
+      <c r="O292">
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="293" spans="4:12">
+    <row r="293" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D293">
         <v>52.866396786917726</v>
       </c>
@@ -10803,11 +11257,11 @@
       <c r="J293">
         <v>2.4923702950152595</v>
       </c>
-      <c r="L293">
+      <c r="O293">
         <v>0.22649572649572652</v>
       </c>
     </row>
-    <row r="294" spans="4:12">
+    <row r="294" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D294">
         <v>40.428539437304146</v>
       </c>
@@ -10817,11 +11271,11 @@
       <c r="J294">
         <v>2.3802887563409332</v>
       </c>
-      <c r="L294">
+      <c r="O294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="4:12">
+    <row r="295" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D295">
         <v>48.196930955247588</v>
       </c>
@@ -10831,11 +11285,11 @@
       <c r="J295">
         <v>1.8984382306181615</v>
       </c>
-      <c r="L295">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="296" spans="4:12">
+      <c r="O295">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D296">
         <v>39.624950253323007</v>
       </c>
@@ -10845,11 +11299,11 @@
       <c r="J296">
         <v>0.40715921621850881</v>
       </c>
-      <c r="L296">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="297" spans="4:12">
+      <c r="O296">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D297">
         <v>60.013867738831316</v>
       </c>
@@ -10859,267 +11313,267 @@
       <c r="J297">
         <v>1.3777653318398209</v>
       </c>
-      <c r="L297">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="298" spans="4:12">
-      <c r="L298">
+      <c r="O297">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O298">
         <v>0.29059829059829057</v>
       </c>
     </row>
-    <row r="299" spans="4:12">
-      <c r="L299">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="300" spans="4:12">
-      <c r="L300">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="4:12">
-      <c r="L301">
+    <row r="299" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O299">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O300">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O301">
         <v>0.98290598290598297</v>
       </c>
     </row>
-    <row r="302" spans="4:12">
-      <c r="L302">
+    <row r="302" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O302">
         <v>0.35398860398860399</v>
       </c>
     </row>
-    <row r="303" spans="4:12">
-      <c r="L303">
+    <row r="303" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O303">
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="304" spans="4:12">
-      <c r="L304">
+    <row r="304" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O304">
         <v>1.9943019943019946E-2</v>
       </c>
     </row>
-    <row r="305" spans="12:12">
-      <c r="L305">
+    <row r="305" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O305">
         <v>0.41595441595441596</v>
       </c>
     </row>
-    <row r="306" spans="12:12">
-      <c r="L306">
+    <row r="306" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O306">
         <v>0.72079772079772075</v>
       </c>
     </row>
-    <row r="307" spans="12:12">
-      <c r="L307">
+    <row r="307" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O307">
         <v>0.52065527065527073</v>
       </c>
     </row>
-    <row r="308" spans="12:12">
-      <c r="L308">
+    <row r="308" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O308">
         <v>4.7008547008547008E-2</v>
       </c>
     </row>
-    <row r="309" spans="12:12">
-      <c r="L309">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="310" spans="12:12">
-      <c r="L310">
+    <row r="309" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O309">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O310">
         <v>0.56908831908831914</v>
       </c>
     </row>
-    <row r="311" spans="12:12">
-      <c r="L311">
+    <row r="311" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O311">
         <v>0.78988603988603989</v>
       </c>
     </row>
-    <row r="312" spans="12:12">
-      <c r="L312">
+    <row r="312" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O312">
         <v>0.72934472934472927</v>
       </c>
     </row>
-    <row r="313" spans="12:12">
-      <c r="L313">
+    <row r="313" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O313">
         <v>0.13319088319088318</v>
       </c>
     </row>
-    <row r="314" spans="12:12">
-      <c r="L314">
+    <row r="314" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O314">
         <v>2.9202279202279205E-2</v>
       </c>
     </row>
-    <row r="315" spans="12:12">
-      <c r="L315">
+    <row r="315" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O315">
         <v>0.23361823361823361</v>
       </c>
     </row>
-    <row r="316" spans="12:12">
-      <c r="L316">
+    <row r="316" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O316">
         <v>0.19230769230769229</v>
       </c>
     </row>
-    <row r="317" spans="12:12">
-      <c r="L317">
+    <row r="317" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O317">
         <v>0.17877492877492879</v>
       </c>
     </row>
-    <row r="318" spans="12:12">
-      <c r="L318">
+    <row r="318" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O318">
         <v>0.49002849002849003</v>
       </c>
     </row>
-    <row r="319" spans="12:12">
-      <c r="L319">
+    <row r="319" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O319">
         <v>0.10113960113960113</v>
       </c>
     </row>
-    <row r="320" spans="12:12">
-      <c r="L320">
+    <row r="320" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O320">
         <v>0.18233618233618232</v>
       </c>
     </row>
-    <row r="321" spans="12:12">
-      <c r="L321">
+    <row r="321" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O321">
         <v>0.73005698005698005</v>
       </c>
     </row>
-    <row r="322" spans="12:12">
-      <c r="L322">
+    <row r="322" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O322">
         <v>0.71937321937321941</v>
       </c>
     </row>
-    <row r="323" spans="12:12">
-      <c r="L323">
+    <row r="323" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O323">
         <v>0.81837606837606836</v>
       </c>
     </row>
-    <row r="324" spans="12:12">
-      <c r="L324">
+    <row r="324" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O324">
         <v>0.34401709401709402</v>
       </c>
     </row>
-    <row r="325" spans="12:12">
-      <c r="L325">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="326" spans="12:12">
-      <c r="L326">
+    <row r="325" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O325">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O326">
         <v>6.8376068376068383E-2</v>
       </c>
     </row>
-    <row r="327" spans="12:12">
-      <c r="L327">
+    <row r="327" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O327">
         <v>0.73219373219373218</v>
       </c>
     </row>
-    <row r="328" spans="12:12">
-      <c r="L328">
+    <row r="328" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O328">
         <v>0.41809116809116809</v>
       </c>
     </row>
-    <row r="329" spans="12:12">
-      <c r="L329">
+    <row r="329" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O329">
         <v>0.25213675213675213</v>
       </c>
     </row>
-    <row r="330" spans="12:12">
-      <c r="L330">
+    <row r="330" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O330">
         <v>0.8903133903133903</v>
       </c>
     </row>
-    <row r="331" spans="12:12">
-      <c r="L331">
+    <row r="331" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O331">
         <v>0.78205128205128205</v>
       </c>
     </row>
-    <row r="332" spans="12:12">
-      <c r="L332">
+    <row r="332" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O332">
         <v>0.10113960113960113</v>
       </c>
     </row>
-    <row r="333" spans="12:12">
-      <c r="L333">
+    <row r="333" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O333">
         <v>0.70299145299145294</v>
       </c>
     </row>
-    <row r="334" spans="12:12">
-      <c r="L334">
+    <row r="334" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O334">
         <v>0.25854700854700857</v>
       </c>
     </row>
-    <row r="335" spans="12:12">
-      <c r="L335">
+    <row r="335" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O335">
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="336" spans="12:12">
-      <c r="L336">
+    <row r="336" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O336">
         <v>0.27492877492877493</v>
       </c>
     </row>
-    <row r="337" spans="12:12">
-      <c r="L337">
+    <row r="337" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O337">
         <v>0.8995726495726496</v>
       </c>
     </row>
-    <row r="338" spans="12:12">
-      <c r="L338">
+    <row r="338" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O338">
         <v>0.24786324786324787</v>
       </c>
     </row>
-    <row r="339" spans="12:12">
-      <c r="L339">
+    <row r="339" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O339">
         <v>0.21866096866096865</v>
       </c>
     </row>
-    <row r="340" spans="12:12">
-      <c r="L340">
+    <row r="340" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O340">
         <v>0.81766381766381768</v>
       </c>
     </row>
-    <row r="341" spans="12:12">
-      <c r="L341">
+    <row r="341" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O341">
         <v>0.11182336182336183</v>
       </c>
     </row>
-    <row r="342" spans="12:12">
-      <c r="L342">
-        <v>1.4245014245014246E-3</v>
-      </c>
-    </row>
-    <row r="343" spans="12:12">
-      <c r="L343">
+    <row r="342" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O342">
+        <v>1.4245014245014246E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O343">
         <v>0.73290598290598286</v>
       </c>
     </row>
-    <row r="344" spans="12:12">
-      <c r="L344">
+    <row r="344" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O344">
         <v>0.50213675213675213</v>
       </c>
     </row>
-    <row r="345" spans="12:12">
-      <c r="L345">
+    <row r="345" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O345">
         <v>0.61182336182336183</v>
       </c>
     </row>
-    <row r="346" spans="12:12">
-      <c r="L346">
+    <row r="346" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O346">
         <v>0.33547008547008544</v>
       </c>
     </row>
-    <row r="347" spans="12:12">
-      <c r="L347">
+    <row r="347" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O347">
         <v>0.52635327635327633</v>
       </c>
     </row>
-    <row r="348" spans="12:12">
-      <c r="L348">
+    <row r="348" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O348">
         <v>0.90028490028490027</v>
       </c>
     </row>
-    <row r="349" spans="12:12">
-      <c r="L349">
+    <row r="349" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O349">
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
